--- a/RoboSub 17 CAN Frames Rev. 3.xlsx
+++ b/RoboSub 17 CAN Frames Rev. 3.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott Szafranski\Desktop\Mechatronics\SIB 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J68048\Documents\Personal\Mechatronics\backplane-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9528" yWindow="0" windowWidth="17196" windowHeight="5676" tabRatio="189"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7740" tabRatio="189"/>
   </bookViews>
   <sheets>
     <sheet name="Frames" sheetId="2" r:id="rId1"/>
     <sheet name="Revision History" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Frames!$A$13:$J$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Frames!$A$13:$K$90</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD15" authorId="0" shapeId="0">
+    <comment ref="AE15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U16" authorId="0" shapeId="0">
+    <comment ref="V16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0" shapeId="0">
+    <comment ref="X16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="N17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="0" shapeId="0">
+    <comment ref="Q17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="S17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0">
+    <comment ref="S18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB62" authorId="0" shapeId="0">
+    <comment ref="AC62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP62" authorId="0" shapeId="0">
+    <comment ref="AQ62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR62" authorId="0" shapeId="0">
+    <comment ref="AS62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF62" authorId="0" shapeId="0">
+    <comment ref="BG62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD63" authorId="0" shapeId="0">
+    <comment ref="AE63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF63" authorId="0" shapeId="0">
+    <comment ref="AG63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="204">
   <si>
     <t>Start Bit</t>
   </si>
@@ -1071,12 +1071,15 @@
   </si>
   <si>
     <t>AOA 3  (8-9)</t>
+  </si>
+  <si>
+    <t>Message ID(HEX)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1418,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1491,6 +1494,141 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1536,140 +1674,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,383 +1998,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW98"/>
+  <dimension ref="A1:BX98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS41" sqref="AS41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14" style="20" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="15" width="9.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="10.77734375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="10.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="10.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="31" width="10.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="35" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="8.88671875" style="20"/>
-    <col min="37" max="41" width="8.88671875" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="16.44140625" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="15.5546875" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="8.88671875" style="20"/>
-    <col min="45" max="51" width="8.88671875" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="8.44140625" style="20" customWidth="1"/>
-    <col min="53" max="57" width="8.44140625" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="59" width="17" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="8.88671875" style="20"/>
-    <col min="61" max="67" width="8.88671875" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="8.88671875" style="20"/>
-    <col min="69" max="75" width="8.88671875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="10.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="32" width="10.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="36" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="8.85546875" style="20"/>
+    <col min="38" max="42" width="8.85546875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="16.42578125" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="15.5703125" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="8.85546875" style="20"/>
+    <col min="46" max="52" width="8.85546875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="8.42578125" style="20" customWidth="1"/>
+    <col min="54" max="58" width="8.42578125" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="60" width="17" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="8.85546875" style="20"/>
+    <col min="62" max="68" width="8.85546875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="8.85546875" style="20"/>
+    <col min="70" max="76" width="8.85546875" style="20" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="25"/>
-      <c r="T1" s="37"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="25"/>
+      <c r="U1" s="37"/>
     </row>
-    <row r="2" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="26"/>
-      <c r="T2" s="37"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="26"/>
+      <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="25"/>
-      <c r="T3" s="37"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="25"/>
+      <c r="U3" s="37"/>
     </row>
-    <row r="4" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="25"/>
-      <c r="T4" s="37"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="25"/>
+      <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="25"/>
-      <c r="T5" s="37"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="25"/>
+      <c r="U5" s="37"/>
     </row>
-    <row r="6" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="25"/>
-      <c r="T6" s="37"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="25"/>
+      <c r="U6" s="37"/>
     </row>
-    <row r="7" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="69" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
-      <c r="T7" s="37"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="85"/>
+      <c r="U7" s="37"/>
     </row>
-    <row r="8" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="67" t="s">
+    <row r="8" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="T8" s="37"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="U8" s="37"/>
     </row>
-    <row r="9" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="68" t="s">
+    <row r="9" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="T9" s="37"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="U9" s="37"/>
     </row>
-    <row r="10" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T10" s="37"/>
+    <row r="10" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="F11" s="83" t="s">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="F11" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="L11" s="80" t="s">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="M11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="92" t="s">
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="80" t="s">
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="80" t="s">
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="80" t="s">
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="80" t="s">
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BA11" s="81"/>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="81"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="81"/>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="82"/>
-      <c r="BH11" s="80" t="s">
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BI11" s="81"/>
-      <c r="BJ11" s="81"/>
-      <c r="BK11" s="81"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="82"/>
-      <c r="BP11" s="80" t="s">
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BQ11" s="81"/>
-      <c r="BR11" s="81"/>
-      <c r="BS11" s="81"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="81"/>
-      <c r="BV11" s="81"/>
-      <c r="BW11" s="82"/>
+      <c r="BR11" s="60"/>
+      <c r="BS11" s="60"/>
+      <c r="BT11" s="60"/>
+      <c r="BU11" s="60"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="60"/>
+      <c r="BX11" s="61"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="L12" s="74" t="s">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="M12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="78" t="s">
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="74" t="s">
+      <c r="V12" s="73"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="75" t="s">
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="74" t="s">
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="74"/>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="74"/>
-      <c r="AX12" s="74"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="75" t="s">
+      <c r="AT12" s="62"/>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="62"/>
+      <c r="BA12" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
-      <c r="BD12" s="75"/>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="74" t="s">
+      <c r="BB12" s="71"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="71"/>
+      <c r="BI12" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="74"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="74"/>
-      <c r="BM12" s="74"/>
-      <c r="BN12" s="74"/>
-      <c r="BO12" s="74"/>
-      <c r="BP12" s="75" t="s">
+      <c r="BJ12" s="62"/>
+      <c r="BK12" s="62"/>
+      <c r="BL12" s="62"/>
+      <c r="BM12" s="62"/>
+      <c r="BN12" s="62"/>
+      <c r="BO12" s="62"/>
+      <c r="BP12" s="62"/>
+      <c r="BQ12" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="BQ12" s="75"/>
-      <c r="BR12" s="75"/>
-      <c r="BS12" s="75"/>
-      <c r="BT12" s="75"/>
-      <c r="BU12" s="75"/>
-      <c r="BV12" s="75"/>
-      <c r="BW12" s="75"/>
+      <c r="BR12" s="71"/>
+      <c r="BS12" s="71"/>
+      <c r="BT12" s="71"/>
+      <c r="BU12" s="71"/>
+      <c r="BV12" s="71"/>
+      <c r="BW12" s="71"/>
+      <c r="BX12" s="71"/>
     </row>
-    <row r="13" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>151</v>
       </c>
@@ -2390,212 +2406,215 @@
       <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="L13" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="U13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="V13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="V13" s="36" t="s">
+      <c r="W13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="36" t="s">
+      <c r="X13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="36" t="s">
+      <c r="Y13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="36" t="s">
+      <c r="Z13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" s="36" t="s">
+      <c r="AA13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AA13" s="36" t="s">
+      <c r="AB13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AC13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AD13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AD13" s="12" t="s">
+      <c r="AE13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AE13" s="12" t="s">
+      <c r="AF13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AG13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AH13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AH13" s="12" t="s">
+      <c r="AI13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AJ13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AJ13" s="36" t="s">
+      <c r="AK13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AK13" s="36" t="s">
+      <c r="AL13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AL13" s="36" t="s">
+      <c r="AM13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AM13" s="36" t="s">
+      <c r="AN13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AN13" s="36" t="s">
+      <c r="AO13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AO13" s="36" t="s">
+      <c r="AP13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AP13" s="36" t="s">
+      <c r="AQ13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AQ13" s="36" t="s">
+      <c r="AR13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AR13" s="12" t="s">
+      <c r="AS13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AS13" s="12" t="s">
+      <c r="AT13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AT13" s="12" t="s">
+      <c r="AU13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AV13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AW13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AW13" s="12" t="s">
+      <c r="AX13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AX13" s="12" t="s">
+      <c r="AY13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AY13" s="12" t="s">
+      <c r="AZ13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AZ13" s="36" t="s">
+      <c r="BA13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="BA13" s="36" t="s">
+      <c r="BB13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BB13" s="36" t="s">
+      <c r="BC13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="BC13" s="36" t="s">
+      <c r="BD13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="BD13" s="36" t="s">
+      <c r="BE13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BE13" s="36" t="s">
+      <c r="BF13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="BF13" s="36" t="s">
+      <c r="BG13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BG13" s="36" t="s">
+      <c r="BH13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BH13" s="12" t="s">
+      <c r="BI13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BI13" s="12" t="s">
+      <c r="BJ13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BJ13" s="12" t="s">
+      <c r="BK13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="BL13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BL13" s="12" t="s">
+      <c r="BM13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="BM13" s="12" t="s">
+      <c r="BN13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="BN13" s="12" t="s">
+      <c r="BO13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="BO13" s="12" t="s">
+      <c r="BP13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BP13" s="36" t="s">
+      <c r="BQ13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="BQ13" s="36" t="s">
+      <c r="BR13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BR13" s="36" t="s">
+      <c r="BS13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="BS13" s="36" t="s">
+      <c r="BT13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="BT13" s="36" t="s">
+      <c r="BU13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU13" s="36" t="s">
+      <c r="BV13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="BV13" s="36" t="s">
+      <c r="BW13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BW13" s="36" t="s">
+      <c r="BX13" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -2618,17 +2637,20 @@
         <f>A14*(2^3)+D14</f>
         <v>8</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="102" t="str">
+        <f>DEC2HEX(G14)</f>
+        <v>8</v>
+      </c>
+      <c r="I14" s="28">
         <v>1</v>
       </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
       <c r="J14" s="14">
         <v>0</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -2636,8 +2658,8 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="41"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -2692,8 +2714,9 @@
       <c r="BU14" s="21"/>
       <c r="BV14" s="21"/>
       <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -2716,49 +2739,52 @@
         <f t="shared" ref="G15:G77" si="0">A15*(2^3)+D15</f>
         <v>16</v>
       </c>
-      <c r="H15" s="14">
-        <v>0</v>
+      <c r="H15" s="102" t="str">
+        <f t="shared" ref="H15:H78" si="1">DEC2HEX(G15)</f>
+        <v>10</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
       </c>
       <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>3</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="76" t="s">
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="18"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="43"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="77" t="s">
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="64" t="s">
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="21"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="43"/>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
@@ -2798,8 +2824,9 @@
       <c r="BU15" s="21"/>
       <c r="BV15" s="21"/>
       <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
@@ -2822,45 +2849,48 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="14">
-        <v>0</v>
+      <c r="H16" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
       </c>
       <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>2</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="72" t="s">
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="V16" s="73"/>
-      <c r="W16" s="13" t="s">
+      <c r="W16" s="58"/>
+      <c r="X16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="Y16" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="Z16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z16" s="63" t="s">
+      <c r="AA16" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="80"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
@@ -2908,8 +2938,9 @@
       <c r="BU16" s="21"/>
       <c r="BV16" s="21"/>
       <c r="BW16" s="21"/>
+      <c r="BX16" s="21"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4</v>
       </c>
@@ -2932,41 +2963,44 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H17" s="14">
-        <v>0</v>
+      <c r="H17" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
       </c>
       <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
         <v>1</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="O17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="P17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="Q17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="R17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="S17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="T17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
@@ -3020,8 +3054,9 @@
       <c r="BU17" s="21"/>
       <c r="BV17" s="21"/>
       <c r="BW17" s="21"/>
+      <c r="BX17" s="21"/>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -3044,29 +3079,32 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H18" s="14">
-        <v>0</v>
+      <c r="H18" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
       </c>
       <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
         <v>1</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="19"/>
+      <c r="S18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="T18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
@@ -3122,8 +3160,9 @@
       <c r="BU18" s="21"/>
       <c r="BV18" s="21"/>
       <c r="BW18" s="21"/>
+      <c r="BX18" s="21"/>
     </row>
-    <row r="19" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <f>A18+1</f>
         <v>6</v>
@@ -3147,29 +3186,32 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H19" s="14">
-        <v>0</v>
+      <c r="H19" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
       </c>
       <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
         <v>1</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="19"/>
+      <c r="S19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="T19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
@@ -3225,10 +3267,11 @@
       <c r="BU19" s="21"/>
       <c r="BV19" s="21"/>
       <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
     </row>
-    <row r="20" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <f t="shared" ref="A20:A83" si="1">A19+1</f>
+        <f t="shared" ref="A20:A83" si="2">A19+1</f>
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3250,29 +3293,32 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H20" s="14">
-        <v>0</v>
+      <c r="H20" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
       </c>
       <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
         <v>1</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="19"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="19"/>
+      <c r="S20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="T20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -3328,10 +3374,11 @@
       <c r="BU20" s="21"/>
       <c r="BV20" s="21"/>
       <c r="BW20" s="21"/>
+      <c r="BX20" s="21"/>
     </row>
-    <row r="21" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3353,29 +3400,32 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H21" s="14">
-        <v>0</v>
+      <c r="H21" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="I21" s="14">
         <v>0</v>
       </c>
       <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
         <v>1</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="19"/>
+      <c r="S21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="T21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -3431,10 +3481,11 @@
       <c r="BU21" s="21"/>
       <c r="BV21" s="21"/>
       <c r="BW21" s="21"/>
+      <c r="BX21" s="21"/>
     </row>
-    <row r="22" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3456,29 +3507,32 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H22" s="14">
-        <v>0</v>
+      <c r="H22" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
       </c>
       <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
         <v>1</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="19"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="19"/>
+      <c r="S22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="T22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -3534,10 +3588,11 @@
       <c r="BU22" s="21"/>
       <c r="BV22" s="21"/>
       <c r="BW22" s="21"/>
+      <c r="BX22" s="21"/>
     </row>
-    <row r="23" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3559,29 +3614,32 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H23" s="14">
-        <v>0</v>
+      <c r="H23" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I23" s="14">
         <v>0</v>
       </c>
       <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
         <v>1</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="19"/>
+      <c r="S23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="T23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -3637,10 +3695,11 @@
       <c r="BU23" s="21"/>
       <c r="BV23" s="21"/>
       <c r="BW23" s="21"/>
+      <c r="BX23" s="21"/>
     </row>
-    <row r="24" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3662,29 +3721,32 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H24" s="14">
-        <v>0</v>
+      <c r="H24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
       </c>
       <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
         <v>1</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="17" t="s">
+      <c r="R24" s="19"/>
+      <c r="S24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="T24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -3740,10 +3802,11 @@
       <c r="BU24" s="21"/>
       <c r="BV24" s="21"/>
       <c r="BW24" s="21"/>
+      <c r="BX24" s="21"/>
     </row>
-    <row r="25" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -3765,29 +3828,32 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H25" s="14">
-        <v>0</v>
+      <c r="H25" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="I25" s="14">
         <v>0</v>
       </c>
       <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
         <v>1</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="19"/>
+      <c r="S25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="T25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -3843,10 +3909,11 @@
       <c r="BU25" s="21"/>
       <c r="BV25" s="21"/>
       <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
     </row>
-    <row r="26" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -3868,37 +3935,40 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="H26" s="14">
-        <v>0</v>
+      <c r="H26" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
       </c>
       <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
         <v>2</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="89" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="18"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="89" t="s">
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="21"/>
+      <c r="AB26" s="50"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
@@ -3946,10 +4016,11 @@
       <c r="BU26" s="21"/>
       <c r="BV26" s="21"/>
       <c r="BW26" s="21"/>
+      <c r="BX26" s="21"/>
     </row>
-    <row r="27" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -3971,17 +4042,20 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I27" s="28">
         <v>1</v>
       </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
       <c r="J27" s="14">
         <v>0</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
@@ -4045,10 +4119,11 @@
       <c r="BU27" s="21"/>
       <c r="BV27" s="21"/>
       <c r="BW27" s="21"/>
+      <c r="BX27" s="21"/>
     </row>
-    <row r="28" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -4070,17 +4145,20 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+      <c r="I28" s="28">
         <v>1</v>
       </c>
-      <c r="I28" s="14">
-        <v>0</v>
-      </c>
       <c r="J28" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="21"/>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
@@ -4144,10 +4222,11 @@
       <c r="BU28" s="21"/>
       <c r="BV28" s="21"/>
       <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -4169,17 +4248,20 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I29" s="28">
         <v>1</v>
       </c>
-      <c r="I29" s="14">
-        <v>0</v>
-      </c>
       <c r="J29" s="14">
         <v>0</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="21"/>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
@@ -4243,10 +4325,11 @@
       <c r="BU29" s="21"/>
       <c r="BV29" s="21"/>
       <c r="BW29" s="21"/>
+      <c r="BX29" s="21"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -4268,17 +4351,20 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>8A</v>
+      </c>
+      <c r="I30" s="28">
         <v>1</v>
       </c>
-      <c r="I30" s="14">
-        <v>0</v>
-      </c>
       <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="21"/>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
@@ -4342,10 +4428,11 @@
       <c r="BU30" s="21"/>
       <c r="BV30" s="21"/>
       <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -4367,17 +4454,20 @@
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I31" s="28">
         <v>1</v>
       </c>
-      <c r="I31" s="14">
-        <v>0</v>
-      </c>
       <c r="J31" s="14">
         <v>0</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="21"/>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
@@ -4441,10 +4531,11 @@
       <c r="BU31" s="21"/>
       <c r="BV31" s="21"/>
       <c r="BW31" s="21"/>
+      <c r="BX31" s="21"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -4466,17 +4557,20 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>9A</v>
+      </c>
+      <c r="I32" s="28">
         <v>1</v>
       </c>
-      <c r="I32" s="14">
-        <v>0</v>
-      </c>
       <c r="J32" s="14">
         <v>0</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="21"/>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -4540,10 +4634,11 @@
       <c r="BU32" s="21"/>
       <c r="BV32" s="21"/>
       <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -4565,17 +4660,20 @@
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>A2</v>
+      </c>
+      <c r="I33" s="28">
         <v>1</v>
       </c>
-      <c r="I33" s="14">
-        <v>0</v>
-      </c>
       <c r="J33" s="14">
         <v>0</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="21"/>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -4639,10 +4737,11 @@
       <c r="BU33" s="21"/>
       <c r="BV33" s="21"/>
       <c r="BW33" s="21"/>
+      <c r="BX33" s="21"/>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -4664,17 +4763,20 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>AA</v>
+      </c>
+      <c r="I34" s="28">
         <v>1</v>
       </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
       <c r="J34" s="14">
         <v>0</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="21"/>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -4738,10 +4840,11 @@
       <c r="BU34" s="21"/>
       <c r="BV34" s="21"/>
       <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -4763,17 +4866,20 @@
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>B2</v>
+      </c>
+      <c r="I35" s="28">
         <v>1</v>
       </c>
-      <c r="I35" s="14">
-        <v>0</v>
-      </c>
       <c r="J35" s="14">
         <v>0</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="21"/>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
@@ -4837,10 +4943,11 @@
       <c r="BU35" s="21"/>
       <c r="BV35" s="21"/>
       <c r="BW35" s="21"/>
+      <c r="BX35" s="21"/>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B36" s="24" t="s">
@@ -4862,17 +4969,20 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>BA</v>
+      </c>
+      <c r="I36" s="28">
         <v>1</v>
       </c>
-      <c r="I36" s="14">
-        <v>0</v>
-      </c>
       <c r="J36" s="14">
         <v>0</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="21"/>
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
@@ -4936,10 +5046,11 @@
       <c r="BU36" s="21"/>
       <c r="BV36" s="21"/>
       <c r="BW36" s="21"/>
+      <c r="BX36" s="21"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -4961,17 +5072,20 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>C2</v>
+      </c>
+      <c r="I37" s="28">
         <v>1</v>
       </c>
-      <c r="I37" s="14">
-        <v>0</v>
-      </c>
       <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="21"/>
+      <c r="K37" s="14">
+        <v>0</v>
+      </c>
+      <c r="L37" s="14"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
@@ -5035,10 +5149,11 @@
       <c r="BU37" s="21"/>
       <c r="BV37" s="21"/>
       <c r="BW37" s="21"/>
+      <c r="BX37" s="21"/>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -5060,17 +5175,20 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>CA</v>
+      </c>
+      <c r="I38" s="28">
         <v>1</v>
       </c>
-      <c r="I38" s="14">
-        <v>0</v>
-      </c>
       <c r="J38" s="14">
         <v>0</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="21"/>
+      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
@@ -5134,10 +5252,11 @@
       <c r="BU38" s="21"/>
       <c r="BV38" s="21"/>
       <c r="BW38" s="21"/>
+      <c r="BX38" s="21"/>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -5159,17 +5278,20 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>D2</v>
+      </c>
+      <c r="I39" s="28">
         <v>1</v>
       </c>
-      <c r="I39" s="14">
-        <v>0</v>
-      </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="21"/>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
@@ -5233,10 +5355,11 @@
       <c r="BU39" s="21"/>
       <c r="BV39" s="21"/>
       <c r="BW39" s="21"/>
+      <c r="BX39" s="21"/>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B40" s="24" t="s">
@@ -5258,17 +5381,20 @@
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+      <c r="I40" s="28">
         <v>1</v>
       </c>
-      <c r="I40" s="14">
-        <v>0</v>
-      </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="21"/>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -5332,10 +5458,11 @@
       <c r="BU40" s="21"/>
       <c r="BV40" s="21"/>
       <c r="BW40" s="21"/>
+      <c r="BX40" s="21"/>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -5357,17 +5484,20 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>E0</v>
+      </c>
+      <c r="I41" s="28">
         <v>1</v>
       </c>
-      <c r="I41" s="14">
-        <v>0</v>
-      </c>
       <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="21"/>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
@@ -5431,10 +5561,11 @@
       <c r="BU41" s="21"/>
       <c r="BV41" s="21"/>
       <c r="BW41" s="21"/>
+      <c r="BX41" s="21"/>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -5456,17 +5587,20 @@
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="I42" s="28">
         <v>1</v>
       </c>
-      <c r="I42" s="14">
-        <v>0</v>
-      </c>
       <c r="J42" s="14">
         <v>0</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="21"/>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
@@ -5530,10 +5664,11 @@
       <c r="BU42" s="21"/>
       <c r="BV42" s="21"/>
       <c r="BW42" s="21"/>
+      <c r="BX42" s="21"/>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -5555,17 +5690,20 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+      <c r="I43" s="28">
         <v>1</v>
       </c>
-      <c r="I43" s="14">
-        <v>0</v>
-      </c>
       <c r="J43" s="14">
         <v>0</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="21"/>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
@@ -5629,10 +5767,11 @@
       <c r="BU43" s="21"/>
       <c r="BV43" s="21"/>
       <c r="BW43" s="21"/>
+      <c r="BX43" s="21"/>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -5654,17 +5793,20 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>F8</v>
+      </c>
+      <c r="I44" s="28">
         <v>1</v>
       </c>
-      <c r="I44" s="14">
-        <v>0</v>
-      </c>
       <c r="J44" s="14">
         <v>0</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="21"/>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
@@ -5728,10 +5870,11 @@
       <c r="BU44" s="21"/>
       <c r="BV44" s="21"/>
       <c r="BW44" s="21"/>
+      <c r="BX44" s="21"/>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -5753,17 +5896,20 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I45" s="28">
         <v>1</v>
       </c>
-      <c r="I45" s="14">
-        <v>0</v>
-      </c>
       <c r="J45" s="14">
         <v>0</v>
       </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="21"/>
+      <c r="K45" s="14">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
@@ -5827,10 +5973,11 @@
       <c r="BU45" s="21"/>
       <c r="BV45" s="21"/>
       <c r="BW45" s="21"/>
+      <c r="BX45" s="21"/>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -5852,17 +5999,20 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="I46" s="28">
         <v>1</v>
       </c>
-      <c r="I46" s="14">
-        <v>0</v>
-      </c>
       <c r="J46" s="14">
         <v>0</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="21"/>
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
@@ -5926,10 +6076,11 @@
       <c r="BU46" s="21"/>
       <c r="BV46" s="21"/>
       <c r="BW46" s="21"/>
+      <c r="BX46" s="21"/>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -5951,17 +6102,20 @@
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="I47" s="28">
         <v>1</v>
       </c>
-      <c r="I47" s="14">
-        <v>0</v>
-      </c>
       <c r="J47" s="14">
         <v>0</v>
       </c>
-      <c r="K47" s="14"/>
-      <c r="L47" s="21"/>
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
@@ -6025,10 +6179,11 @@
       <c r="BU47" s="21"/>
       <c r="BV47" s="21"/>
       <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B48" s="24" t="s">
@@ -6050,17 +6205,20 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="I48" s="28">
         <v>1</v>
       </c>
-      <c r="I48" s="14">
-        <v>0</v>
-      </c>
       <c r="J48" s="14">
         <v>0</v>
       </c>
-      <c r="K48" s="14"/>
-      <c r="L48" s="21"/>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
@@ -6124,10 +6282,11 @@
       <c r="BU48" s="21"/>
       <c r="BV48" s="21"/>
       <c r="BW48" s="21"/>
+      <c r="BX48" s="21"/>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -6149,17 +6308,20 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I49" s="28">
         <v>1</v>
       </c>
-      <c r="I49" s="14">
-        <v>0</v>
-      </c>
       <c r="J49" s="14">
         <v>0</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="21"/>
+      <c r="K49" s="14">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
@@ -6223,10 +6385,11 @@
       <c r="BU49" s="21"/>
       <c r="BV49" s="21"/>
       <c r="BW49" s="21"/>
+      <c r="BX49" s="21"/>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B50" s="24" t="s">
@@ -6248,17 +6411,20 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="I50" s="28">
         <v>1</v>
       </c>
-      <c r="I50" s="14">
-        <v>0</v>
-      </c>
       <c r="J50" s="14">
         <v>0</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="21"/>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
@@ -6322,10 +6488,11 @@
       <c r="BU50" s="21"/>
       <c r="BV50" s="21"/>
       <c r="BW50" s="21"/>
+      <c r="BX50" s="21"/>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B51" s="24" t="s">
@@ -6347,17 +6514,20 @@
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="I51" s="28">
         <v>1</v>
       </c>
-      <c r="I51" s="14">
-        <v>0</v>
-      </c>
       <c r="J51" s="14">
         <v>0</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="21"/>
+      <c r="K51" s="14">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
@@ -6421,10 +6591,11 @@
       <c r="BU51" s="21"/>
       <c r="BV51" s="21"/>
       <c r="BW51" s="21"/>
+      <c r="BX51" s="21"/>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B52" s="24" t="s">
@@ -6446,17 +6617,20 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="I52" s="28">
         <v>1</v>
       </c>
-      <c r="I52" s="14">
-        <v>0</v>
-      </c>
       <c r="J52" s="14">
         <v>0</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="21"/>
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
@@ -6520,10 +6694,11 @@
       <c r="BU52" s="21"/>
       <c r="BV52" s="21"/>
       <c r="BW52" s="21"/>
+      <c r="BX52" s="21"/>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -6545,17 +6720,20 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="I53" s="28">
         <v>1</v>
       </c>
-      <c r="I53" s="14">
-        <v>0</v>
-      </c>
       <c r="J53" s="14">
         <v>0</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="21"/>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
@@ -6619,10 +6797,11 @@
       <c r="BU53" s="21"/>
       <c r="BV53" s="21"/>
       <c r="BW53" s="21"/>
+      <c r="BX53" s="21"/>
     </row>
-    <row r="54" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B54" s="24" t="s">
@@ -6644,37 +6823,40 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="H54" s="14">
-        <v>0</v>
+      <c r="H54" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>14A</v>
       </c>
       <c r="I54" s="14">
         <v>0</v>
       </c>
       <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
         <v>2</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="96" t="s">
+      <c r="L54" s="14"/>
+      <c r="M54" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="98"/>
-      <c r="T54" s="96" t="s">
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U54" s="97"/>
-      <c r="V54" s="97"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="97"/>
-      <c r="Z54" s="97"/>
-      <c r="AA54" s="98"/>
-      <c r="AB54" s="21"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="53"/>
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
@@ -6722,10 +6904,11 @@
       <c r="BU54" s="21"/>
       <c r="BV54" s="21"/>
       <c r="BW54" s="21"/>
+      <c r="BX54" s="21"/>
     </row>
-    <row r="55" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -6747,37 +6930,40 @@
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="H55" s="14">
-        <v>0</v>
+      <c r="H55" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>152</v>
       </c>
       <c r="I55" s="14">
         <v>0</v>
       </c>
       <c r="J55" s="14">
+        <v>0</v>
+      </c>
+      <c r="K55" s="14">
         <v>2</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="96" t="s">
+      <c r="L55" s="14"/>
+      <c r="M55" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="96" t="s">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="98"/>
-      <c r="AB55" s="21"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="53"/>
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
@@ -6825,10 +7011,11 @@
       <c r="BU55" s="21"/>
       <c r="BV55" s="21"/>
       <c r="BW55" s="21"/>
+      <c r="BX55" s="21"/>
     </row>
-    <row r="56" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B56" s="24" t="s">
@@ -6850,37 +7037,40 @@
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="H56" s="14">
-        <v>0</v>
+      <c r="H56" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>15A</v>
       </c>
       <c r="I56" s="14">
         <v>0</v>
       </c>
       <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="K56" s="14">
         <v>2</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="96" t="s">
+      <c r="L56" s="14"/>
+      <c r="M56" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="96" t="s">
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="98"/>
-      <c r="AB56" s="21"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="53"/>
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
@@ -6928,10 +7118,11 @@
       <c r="BU56" s="21"/>
       <c r="BV56" s="21"/>
       <c r="BW56" s="21"/>
+      <c r="BX56" s="21"/>
     </row>
-    <row r="57" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -6953,37 +7144,40 @@
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H57" s="14">
-        <v>0</v>
+      <c r="H57" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>162</v>
       </c>
       <c r="I57" s="14">
         <v>0</v>
       </c>
       <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14">
         <v>2</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="96" t="s">
+      <c r="L57" s="14"/>
+      <c r="M57" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M57" s="97"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="97"/>
-      <c r="S57" s="98"/>
-      <c r="T57" s="96" t="s">
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U57" s="97"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
-      <c r="AA57" s="98"/>
-      <c r="AB57" s="21"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="53"/>
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
@@ -7031,10 +7225,11 @@
       <c r="BU57" s="21"/>
       <c r="BV57" s="21"/>
       <c r="BW57" s="21"/>
+      <c r="BX57" s="21"/>
     </row>
-    <row r="58" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -7056,37 +7251,40 @@
         <f t="shared" si="0"/>
         <v>362</v>
       </c>
-      <c r="H58" s="14">
-        <v>0</v>
+      <c r="H58" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>16A</v>
       </c>
       <c r="I58" s="14">
         <v>0</v>
       </c>
       <c r="J58" s="14">
+        <v>0</v>
+      </c>
+      <c r="K58" s="14">
         <v>2</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="96" t="s">
+      <c r="L58" s="14"/>
+      <c r="M58" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="96" t="s">
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="98"/>
-      <c r="AB58" s="21"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="53"/>
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
@@ -7134,10 +7332,11 @@
       <c r="BU58" s="21"/>
       <c r="BV58" s="21"/>
       <c r="BW58" s="21"/>
+      <c r="BX58" s="21"/>
     </row>
-    <row r="59" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -7159,37 +7358,40 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="H59" s="14">
-        <v>0</v>
+      <c r="H59" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>172</v>
       </c>
       <c r="I59" s="14">
         <v>0</v>
       </c>
       <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
         <v>2</v>
       </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="96" t="s">
+      <c r="L59" s="14"/>
+      <c r="M59" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
-      <c r="R59" s="97"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="96" t="s">
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U59" s="97"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="97"/>
-      <c r="AA59" s="98"/>
-      <c r="AB59" s="21"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="53"/>
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
@@ -7237,10 +7439,11 @@
       <c r="BU59" s="21"/>
       <c r="BV59" s="21"/>
       <c r="BW59" s="21"/>
+      <c r="BX59" s="21"/>
     </row>
-    <row r="60" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -7262,37 +7465,40 @@
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="H60" s="14">
-        <v>0</v>
+      <c r="H60" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>17A</v>
       </c>
       <c r="I60" s="14">
         <v>0</v>
       </c>
       <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14">
         <v>2</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="96" t="s">
+      <c r="L60" s="14"/>
+      <c r="M60" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="98"/>
-      <c r="T60" s="96" t="s">
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U60" s="97"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="97"/>
-      <c r="Z60" s="97"/>
-      <c r="AA60" s="98"/>
-      <c r="AB60" s="21"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="53"/>
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
@@ -7340,10 +7546,11 @@
       <c r="BU60" s="21"/>
       <c r="BV60" s="21"/>
       <c r="BW60" s="21"/>
+      <c r="BX60" s="21"/>
     </row>
-    <row r="61" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:76" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -7365,37 +7572,40 @@
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="H61" s="14">
-        <v>0</v>
+      <c r="H61" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>182</v>
       </c>
       <c r="I61" s="14">
         <v>0</v>
       </c>
       <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="14">
         <v>2</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="96" t="s">
+      <c r="L61" s="14"/>
+      <c r="M61" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="98"/>
-      <c r="T61" s="96" t="s">
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97"/>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="97"/>
-      <c r="Z61" s="97"/>
-      <c r="AA61" s="98"/>
-      <c r="AB61" s="21"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="53"/>
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
@@ -7443,10 +7653,11 @@
       <c r="BU61" s="21"/>
       <c r="BV61" s="21"/>
       <c r="BW61" s="21"/>
+      <c r="BX61" s="21"/>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -7468,83 +7679,86 @@
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="H62" s="14">
-        <v>0</v>
+      <c r="H62" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>188</v>
       </c>
       <c r="I62" s="14">
         <v>0</v>
       </c>
       <c r="J62" s="14">
+        <v>0</v>
+      </c>
+      <c r="K62" s="14">
         <v>6</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="64" t="s">
+      <c r="L62" s="14"/>
+      <c r="M62" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="76" t="s">
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
-      <c r="W62" s="65"/>
-      <c r="X62" s="65"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="65"/>
-      <c r="AA62" s="66"/>
-      <c r="AB62" s="89" t="s">
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
+      <c r="Z62" s="47"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="AC62" s="90"/>
-      <c r="AD62" s="90"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="64" t="s">
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="AG62" s="65"/>
-      <c r="AH62" s="65"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="89" t="s">
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="47"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="AK62" s="90"/>
-      <c r="AL62" s="90"/>
-      <c r="AM62" s="90"/>
-      <c r="AN62" s="90"/>
-      <c r="AO62" s="91"/>
-      <c r="AP62" s="77" t="s">
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="49"/>
+      <c r="AP62" s="50"/>
+      <c r="AQ62" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="AQ62" s="73"/>
-      <c r="AR62" s="89" t="s">
+      <c r="AR62" s="58"/>
+      <c r="AS62" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="AS62" s="90"/>
-      <c r="AT62" s="90"/>
-      <c r="AU62" s="91"/>
-      <c r="AV62" s="89" t="s">
+      <c r="AT62" s="49"/>
+      <c r="AU62" s="49"/>
+      <c r="AV62" s="50"/>
+      <c r="AW62" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="AW62" s="90"/>
-      <c r="AX62" s="90"/>
-      <c r="AY62" s="91"/>
-      <c r="AZ62" s="18"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="49"/>
+      <c r="AZ62" s="50"/>
       <c r="BA62" s="18"/>
       <c r="BB62" s="18"/>
       <c r="BC62" s="18"/>
       <c r="BD62" s="18"/>
       <c r="BE62" s="18"/>
-      <c r="BF62" s="77" t="s">
+      <c r="BF62" s="18"/>
+      <c r="BG62" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="BG62" s="73"/>
-      <c r="BH62" s="21"/>
+      <c r="BH62" s="58"/>
       <c r="BI62" s="21"/>
       <c r="BJ62" s="21"/>
       <c r="BK62" s="21"/>
@@ -7560,10 +7774,11 @@
       <c r="BU62" s="21"/>
       <c r="BV62" s="21"/>
       <c r="BW62" s="21"/>
+      <c r="BX62" s="21"/>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -7585,49 +7800,52 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H63" s="14">
-        <v>0</v>
+      <c r="H63" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="I63" s="14">
         <v>0</v>
       </c>
       <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="14">
         <v>3</v>
       </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="93" t="s">
+      <c r="L63" s="14"/>
+      <c r="M63" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="94"/>
-      <c r="Q63" s="94"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="95"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="93" t="s">
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="W63" s="94"/>
-      <c r="X63" s="94"/>
-      <c r="Y63" s="94"/>
-      <c r="Z63" s="94"/>
-      <c r="AA63" s="95"/>
-      <c r="AB63" s="18"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="56"/>
       <c r="AC63" s="18"/>
-      <c r="AD63" s="77" t="s">
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="AE63" s="73"/>
-      <c r="AF63" s="89" t="s">
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="AG63" s="90"/>
-      <c r="AH63" s="90"/>
-      <c r="AI63" s="91"/>
-      <c r="AJ63" s="21"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="50"/>
       <c r="AK63" s="21"/>
       <c r="AL63" s="21"/>
       <c r="AM63" s="21"/>
@@ -7667,10 +7885,11 @@
       <c r="BU63" s="21"/>
       <c r="BV63" s="21"/>
       <c r="BW63" s="21"/>
+      <c r="BX63" s="21"/>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -7692,77 +7911,80 @@
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="H64" s="14">
-        <v>0</v>
+      <c r="H64" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>198</v>
       </c>
       <c r="I64" s="14">
         <v>0</v>
       </c>
       <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
         <v>6</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="99" t="s">
+      <c r="L64" s="14"/>
+      <c r="M64" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="M64" s="100"/>
-      <c r="N64" s="100"/>
-      <c r="O64" s="100"/>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100"/>
-      <c r="R64" s="100"/>
-      <c r="S64" s="101"/>
-      <c r="T64" s="18"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="46"/>
       <c r="U64" s="18"/>
       <c r="V64" s="18"/>
       <c r="W64" s="18"/>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
-      <c r="Z64" s="99" t="s">
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="AA64" s="101"/>
-      <c r="AB64" s="99" t="s">
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AC64" s="100"/>
-      <c r="AD64" s="100"/>
-      <c r="AE64" s="100"/>
-      <c r="AF64" s="100"/>
-      <c r="AG64" s="100"/>
-      <c r="AH64" s="100"/>
-      <c r="AI64" s="101"/>
-      <c r="AJ64" s="18"/>
+      <c r="AD64" s="45"/>
+      <c r="AE64" s="45"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="45"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="45"/>
+      <c r="AJ64" s="46"/>
       <c r="AK64" s="18"/>
       <c r="AL64" s="18"/>
       <c r="AM64" s="18"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="18"/>
-      <c r="AP64" s="99" t="s">
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="AQ64" s="101"/>
-      <c r="AR64" s="99" t="s">
+      <c r="AR64" s="46"/>
+      <c r="AS64" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="AS64" s="100"/>
-      <c r="AT64" s="100"/>
-      <c r="AU64" s="100"/>
-      <c r="AV64" s="100"/>
-      <c r="AW64" s="100"/>
-      <c r="AX64" s="100"/>
-      <c r="AY64" s="101"/>
-      <c r="AZ64" s="18"/>
+      <c r="AT64" s="45"/>
+      <c r="AU64" s="45"/>
+      <c r="AV64" s="45"/>
+      <c r="AW64" s="45"/>
+      <c r="AX64" s="45"/>
+      <c r="AY64" s="45"/>
+      <c r="AZ64" s="46"/>
       <c r="BA64" s="18"/>
       <c r="BB64" s="18"/>
       <c r="BC64" s="18"/>
       <c r="BD64" s="18"/>
       <c r="BE64" s="18"/>
-      <c r="BF64" s="99" t="s">
+      <c r="BF64" s="18"/>
+      <c r="BG64" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="BG64" s="101"/>
-      <c r="BH64" s="21"/>
+      <c r="BH64" s="46"/>
       <c r="BI64" s="21"/>
       <c r="BJ64" s="21"/>
       <c r="BK64" s="21"/>
@@ -7778,10 +8000,11 @@
       <c r="BU64" s="21"/>
       <c r="BV64" s="21"/>
       <c r="BW64" s="21"/>
+      <c r="BX64" s="21"/>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -7803,77 +8026,80 @@
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="H65" s="14">
-        <v>0</v>
+      <c r="H65" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1A0</v>
       </c>
       <c r="I65" s="14">
         <v>0</v>
       </c>
       <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14">
         <v>6</v>
       </c>
-      <c r="K65" s="14"/>
-      <c r="L65" s="64" t="s">
+      <c r="L65" s="14"/>
+      <c r="M65" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="18"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="43"/>
       <c r="U65" s="18"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
-      <c r="Z65" s="64" t="s">
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="64" t="s">
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="18"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="47"/>
+      <c r="AJ65" s="43"/>
       <c r="AK65" s="18"/>
       <c r="AL65" s="18"/>
       <c r="AM65" s="18"/>
       <c r="AN65" s="18"/>
       <c r="AO65" s="18"/>
-      <c r="AP65" s="64" t="s">
+      <c r="AP65" s="18"/>
+      <c r="AQ65" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="64" t="s">
+      <c r="AR65" s="43"/>
+      <c r="AS65" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="AS65" s="65"/>
-      <c r="AT65" s="65"/>
-      <c r="AU65" s="65"/>
-      <c r="AV65" s="65"/>
-      <c r="AW65" s="65"/>
-      <c r="AX65" s="65"/>
-      <c r="AY65" s="66"/>
-      <c r="AZ65" s="18"/>
+      <c r="AT65" s="47"/>
+      <c r="AU65" s="47"/>
+      <c r="AV65" s="47"/>
+      <c r="AW65" s="47"/>
+      <c r="AX65" s="47"/>
+      <c r="AY65" s="47"/>
+      <c r="AZ65" s="43"/>
       <c r="BA65" s="18"/>
       <c r="BB65" s="18"/>
       <c r="BC65" s="18"/>
       <c r="BD65" s="18"/>
       <c r="BE65" s="18"/>
-      <c r="BF65" s="64" t="s">
+      <c r="BF65" s="18"/>
+      <c r="BG65" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="BG65" s="66"/>
-      <c r="BH65" s="21"/>
+      <c r="BH65" s="43"/>
       <c r="BI65" s="21"/>
       <c r="BJ65" s="21"/>
       <c r="BK65" s="21"/>
@@ -7889,10 +8115,11 @@
       <c r="BU65" s="21"/>
       <c r="BV65" s="21"/>
       <c r="BW65" s="21"/>
+      <c r="BX65" s="21"/>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -7914,100 +8141,104 @@
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="H66" s="14">
-        <v>0</v>
+      <c r="H66" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1A8</v>
       </c>
       <c r="I66" s="14">
         <v>0</v>
       </c>
       <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14">
         <v>8</v>
       </c>
-      <c r="K66" s="14"/>
-      <c r="L66" s="89" t="s">
+      <c r="L66" s="14"/>
+      <c r="M66" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="89" t="s">
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U66" s="90"/>
-      <c r="V66" s="90"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="90"/>
-      <c r="Y66" s="90"/>
-      <c r="Z66" s="90"/>
-      <c r="AA66" s="91"/>
-      <c r="AB66" s="89" t="s">
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC66" s="90"/>
-      <c r="AD66" s="90"/>
-      <c r="AE66" s="90"/>
-      <c r="AF66" s="90"/>
-      <c r="AG66" s="90"/>
-      <c r="AH66" s="90"/>
-      <c r="AI66" s="91"/>
-      <c r="AJ66" s="89" t="s">
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="50"/>
+      <c r="AK66" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK66" s="90"/>
-      <c r="AL66" s="90"/>
-      <c r="AM66" s="90"/>
-      <c r="AN66" s="90"/>
-      <c r="AO66" s="90"/>
-      <c r="AP66" s="90"/>
-      <c r="AQ66" s="91"/>
-      <c r="AR66" s="89" t="s">
+      <c r="AL66" s="49"/>
+      <c r="AM66" s="49"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="49"/>
+      <c r="AP66" s="49"/>
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="50"/>
+      <c r="AS66" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS66" s="90"/>
-      <c r="AT66" s="90"/>
-      <c r="AU66" s="90"/>
-      <c r="AV66" s="90"/>
-      <c r="AW66" s="90"/>
-      <c r="AX66" s="90"/>
-      <c r="AY66" s="91"/>
-      <c r="AZ66" s="89" t="s">
+      <c r="AT66" s="49"/>
+      <c r="AU66" s="49"/>
+      <c r="AV66" s="49"/>
+      <c r="AW66" s="49"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="49"/>
+      <c r="AZ66" s="50"/>
+      <c r="BA66" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA66" s="90"/>
-      <c r="BB66" s="90"/>
-      <c r="BC66" s="90"/>
-      <c r="BD66" s="90"/>
-      <c r="BE66" s="90"/>
-      <c r="BF66" s="90"/>
-      <c r="BG66" s="91"/>
-      <c r="BH66" s="89" t="s">
+      <c r="BB66" s="49"/>
+      <c r="BC66" s="49"/>
+      <c r="BD66" s="49"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="49"/>
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="50"/>
+      <c r="BI66" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI66" s="90"/>
-      <c r="BJ66" s="90"/>
-      <c r="BK66" s="90"/>
-      <c r="BL66" s="90"/>
-      <c r="BM66" s="90"/>
-      <c r="BN66" s="90"/>
-      <c r="BO66" s="91"/>
-      <c r="BP66" s="89" t="s">
+      <c r="BJ66" s="49"/>
+      <c r="BK66" s="49"/>
+      <c r="BL66" s="49"/>
+      <c r="BM66" s="49"/>
+      <c r="BN66" s="49"/>
+      <c r="BO66" s="49"/>
+      <c r="BP66" s="50"/>
+      <c r="BQ66" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ66" s="90"/>
-      <c r="BR66" s="90"/>
-      <c r="BS66" s="90"/>
-      <c r="BT66" s="90"/>
-      <c r="BU66" s="90"/>
-      <c r="BV66" s="90"/>
-      <c r="BW66" s="91"/>
+      <c r="BR66" s="49"/>
+      <c r="BS66" s="49"/>
+      <c r="BT66" s="49"/>
+      <c r="BU66" s="49"/>
+      <c r="BV66" s="49"/>
+      <c r="BW66" s="49"/>
+      <c r="BX66" s="50"/>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -8029,100 +8260,104 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="H67" s="14">
-        <v>0</v>
+      <c r="H67" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1B0</v>
       </c>
       <c r="I67" s="14">
         <v>0</v>
       </c>
       <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14">
         <v>8</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="89" t="s">
+      <c r="L67" s="14"/>
+      <c r="M67" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="90"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="89" t="s">
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U67" s="90"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
-      <c r="Z67" s="90"/>
-      <c r="AA67" s="91"/>
-      <c r="AB67" s="89" t="s">
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC67" s="90"/>
-      <c r="AD67" s="90"/>
-      <c r="AE67" s="90"/>
-      <c r="AF67" s="90"/>
-      <c r="AG67" s="90"/>
-      <c r="AH67" s="90"/>
-      <c r="AI67" s="91"/>
-      <c r="AJ67" s="89" t="s">
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="50"/>
+      <c r="AK67" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK67" s="90"/>
-      <c r="AL67" s="90"/>
-      <c r="AM67" s="90"/>
-      <c r="AN67" s="90"/>
-      <c r="AO67" s="90"/>
-      <c r="AP67" s="90"/>
-      <c r="AQ67" s="91"/>
-      <c r="AR67" s="64" t="s">
+      <c r="AL67" s="49"/>
+      <c r="AM67" s="49"/>
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="49"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="50"/>
+      <c r="AS67" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AS67" s="65"/>
-      <c r="AT67" s="65"/>
-      <c r="AU67" s="65"/>
-      <c r="AV67" s="65"/>
-      <c r="AW67" s="65"/>
-      <c r="AX67" s="65"/>
-      <c r="AY67" s="66"/>
-      <c r="AZ67" s="89" t="s">
+      <c r="AT67" s="47"/>
+      <c r="AU67" s="47"/>
+      <c r="AV67" s="47"/>
+      <c r="AW67" s="47"/>
+      <c r="AX67" s="47"/>
+      <c r="AY67" s="47"/>
+      <c r="AZ67" s="43"/>
+      <c r="BA67" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA67" s="90"/>
-      <c r="BB67" s="90"/>
-      <c r="BC67" s="90"/>
-      <c r="BD67" s="90"/>
-      <c r="BE67" s="90"/>
-      <c r="BF67" s="90"/>
-      <c r="BG67" s="91"/>
-      <c r="BH67" s="89" t="s">
+      <c r="BB67" s="49"/>
+      <c r="BC67" s="49"/>
+      <c r="BD67" s="49"/>
+      <c r="BE67" s="49"/>
+      <c r="BF67" s="49"/>
+      <c r="BG67" s="49"/>
+      <c r="BH67" s="50"/>
+      <c r="BI67" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI67" s="90"/>
-      <c r="BJ67" s="90"/>
-      <c r="BK67" s="90"/>
-      <c r="BL67" s="90"/>
-      <c r="BM67" s="90"/>
-      <c r="BN67" s="90"/>
-      <c r="BO67" s="91"/>
-      <c r="BP67" s="89" t="s">
+      <c r="BJ67" s="49"/>
+      <c r="BK67" s="49"/>
+      <c r="BL67" s="49"/>
+      <c r="BM67" s="49"/>
+      <c r="BN67" s="49"/>
+      <c r="BO67" s="49"/>
+      <c r="BP67" s="50"/>
+      <c r="BQ67" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ67" s="90"/>
-      <c r="BR67" s="90"/>
-      <c r="BS67" s="90"/>
-      <c r="BT67" s="90"/>
-      <c r="BU67" s="90"/>
-      <c r="BV67" s="90"/>
-      <c r="BW67" s="91"/>
+      <c r="BR67" s="49"/>
+      <c r="BS67" s="49"/>
+      <c r="BT67" s="49"/>
+      <c r="BU67" s="49"/>
+      <c r="BV67" s="49"/>
+      <c r="BW67" s="49"/>
+      <c r="BX67" s="50"/>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -8144,100 +8379,104 @@
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="H68" s="14">
-        <v>0</v>
+      <c r="H68" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1B8</v>
       </c>
       <c r="I68" s="14">
         <v>0</v>
       </c>
       <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14">
         <v>8</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="L68" s="89" t="s">
+      <c r="L68" s="14"/>
+      <c r="M68" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M68" s="90"/>
-      <c r="N68" s="90"/>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="90"/>
-      <c r="R68" s="90"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="89" t="s">
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U68" s="90"/>
-      <c r="V68" s="90"/>
-      <c r="W68" s="90"/>
-      <c r="X68" s="90"/>
-      <c r="Y68" s="90"/>
-      <c r="Z68" s="90"/>
-      <c r="AA68" s="91"/>
-      <c r="AB68" s="89" t="s">
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC68" s="90"/>
-      <c r="AD68" s="90"/>
-      <c r="AE68" s="90"/>
-      <c r="AF68" s="90"/>
-      <c r="AG68" s="90"/>
-      <c r="AH68" s="90"/>
-      <c r="AI68" s="91"/>
-      <c r="AJ68" s="89" t="s">
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="50"/>
+      <c r="AK68" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK68" s="90"/>
-      <c r="AL68" s="90"/>
-      <c r="AM68" s="90"/>
-      <c r="AN68" s="90"/>
-      <c r="AO68" s="90"/>
-      <c r="AP68" s="90"/>
-      <c r="AQ68" s="91"/>
-      <c r="AR68" s="89" t="s">
+      <c r="AL68" s="49"/>
+      <c r="AM68" s="49"/>
+      <c r="AN68" s="49"/>
+      <c r="AO68" s="49"/>
+      <c r="AP68" s="49"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="50"/>
+      <c r="AS68" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS68" s="90"/>
-      <c r="AT68" s="90"/>
-      <c r="AU68" s="90"/>
-      <c r="AV68" s="90"/>
-      <c r="AW68" s="90"/>
-      <c r="AX68" s="90"/>
-      <c r="AY68" s="91"/>
-      <c r="AZ68" s="89" t="s">
+      <c r="AT68" s="49"/>
+      <c r="AU68" s="49"/>
+      <c r="AV68" s="49"/>
+      <c r="AW68" s="49"/>
+      <c r="AX68" s="49"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="50"/>
+      <c r="BA68" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA68" s="90"/>
-      <c r="BB68" s="90"/>
-      <c r="BC68" s="90"/>
-      <c r="BD68" s="90"/>
-      <c r="BE68" s="90"/>
-      <c r="BF68" s="90"/>
-      <c r="BG68" s="91"/>
-      <c r="BH68" s="89" t="s">
+      <c r="BB68" s="49"/>
+      <c r="BC68" s="49"/>
+      <c r="BD68" s="49"/>
+      <c r="BE68" s="49"/>
+      <c r="BF68" s="49"/>
+      <c r="BG68" s="49"/>
+      <c r="BH68" s="50"/>
+      <c r="BI68" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI68" s="90"/>
-      <c r="BJ68" s="90"/>
-      <c r="BK68" s="90"/>
-      <c r="BL68" s="90"/>
-      <c r="BM68" s="90"/>
-      <c r="BN68" s="90"/>
-      <c r="BO68" s="91"/>
-      <c r="BP68" s="89" t="s">
+      <c r="BJ68" s="49"/>
+      <c r="BK68" s="49"/>
+      <c r="BL68" s="49"/>
+      <c r="BM68" s="49"/>
+      <c r="BN68" s="49"/>
+      <c r="BO68" s="49"/>
+      <c r="BP68" s="50"/>
+      <c r="BQ68" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ68" s="90"/>
-      <c r="BR68" s="90"/>
-      <c r="BS68" s="90"/>
-      <c r="BT68" s="90"/>
-      <c r="BU68" s="90"/>
-      <c r="BV68" s="90"/>
-      <c r="BW68" s="91"/>
+      <c r="BR68" s="49"/>
+      <c r="BS68" s="49"/>
+      <c r="BT68" s="49"/>
+      <c r="BU68" s="49"/>
+      <c r="BV68" s="49"/>
+      <c r="BW68" s="49"/>
+      <c r="BX68" s="50"/>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B69" s="24" t="s">
@@ -8259,100 +8498,104 @@
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="H69" s="14">
-        <v>0</v>
+      <c r="H69" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1C0</v>
       </c>
       <c r="I69" s="14">
         <v>0</v>
       </c>
       <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14">
         <v>8</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="89" t="s">
+      <c r="L69" s="14"/>
+      <c r="M69" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="91"/>
-      <c r="T69" s="89" t="s">
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90"/>
-      <c r="Y69" s="90"/>
-      <c r="Z69" s="90"/>
-      <c r="AA69" s="91"/>
-      <c r="AB69" s="89" t="s">
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC69" s="90"/>
-      <c r="AD69" s="90"/>
-      <c r="AE69" s="90"/>
-      <c r="AF69" s="90"/>
-      <c r="AG69" s="90"/>
-      <c r="AH69" s="90"/>
-      <c r="AI69" s="91"/>
-      <c r="AJ69" s="89" t="s">
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK69" s="90"/>
-      <c r="AL69" s="90"/>
-      <c r="AM69" s="90"/>
-      <c r="AN69" s="90"/>
-      <c r="AO69" s="90"/>
-      <c r="AP69" s="90"/>
-      <c r="AQ69" s="91"/>
-      <c r="AR69" s="89" t="s">
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="50"/>
+      <c r="AS69" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS69" s="90"/>
-      <c r="AT69" s="90"/>
-      <c r="AU69" s="90"/>
-      <c r="AV69" s="90"/>
-      <c r="AW69" s="90"/>
-      <c r="AX69" s="90"/>
-      <c r="AY69" s="91"/>
-      <c r="AZ69" s="89" t="s">
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="49"/>
+      <c r="AX69" s="49"/>
+      <c r="AY69" s="49"/>
+      <c r="AZ69" s="50"/>
+      <c r="BA69" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA69" s="90"/>
-      <c r="BB69" s="90"/>
-      <c r="BC69" s="90"/>
-      <c r="BD69" s="90"/>
-      <c r="BE69" s="90"/>
-      <c r="BF69" s="90"/>
-      <c r="BG69" s="91"/>
-      <c r="BH69" s="89" t="s">
+      <c r="BB69" s="49"/>
+      <c r="BC69" s="49"/>
+      <c r="BD69" s="49"/>
+      <c r="BE69" s="49"/>
+      <c r="BF69" s="49"/>
+      <c r="BG69" s="49"/>
+      <c r="BH69" s="50"/>
+      <c r="BI69" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI69" s="90"/>
-      <c r="BJ69" s="90"/>
-      <c r="BK69" s="90"/>
-      <c r="BL69" s="90"/>
-      <c r="BM69" s="90"/>
-      <c r="BN69" s="90"/>
-      <c r="BO69" s="91"/>
-      <c r="BP69" s="89" t="s">
+      <c r="BJ69" s="49"/>
+      <c r="BK69" s="49"/>
+      <c r="BL69" s="49"/>
+      <c r="BM69" s="49"/>
+      <c r="BN69" s="49"/>
+      <c r="BO69" s="49"/>
+      <c r="BP69" s="50"/>
+      <c r="BQ69" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ69" s="90"/>
-      <c r="BR69" s="90"/>
-      <c r="BS69" s="90"/>
-      <c r="BT69" s="90"/>
-      <c r="BU69" s="90"/>
-      <c r="BV69" s="90"/>
-      <c r="BW69" s="91"/>
+      <c r="BR69" s="49"/>
+      <c r="BS69" s="49"/>
+      <c r="BT69" s="49"/>
+      <c r="BU69" s="49"/>
+      <c r="BV69" s="49"/>
+      <c r="BW69" s="49"/>
+      <c r="BX69" s="50"/>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B70" s="24" t="s">
@@ -8374,100 +8617,104 @@
         <f t="shared" si="0"/>
         <v>456</v>
       </c>
-      <c r="H70" s="14">
-        <v>0</v>
+      <c r="H70" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1C8</v>
       </c>
       <c r="I70" s="14">
         <v>0</v>
       </c>
       <c r="J70" s="14">
+        <v>0</v>
+      </c>
+      <c r="K70" s="14">
         <v>8</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="89" t="s">
+      <c r="L70" s="14"/>
+      <c r="M70" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="90"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="89" t="s">
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U70" s="90"/>
-      <c r="V70" s="90"/>
-      <c r="W70" s="90"/>
-      <c r="X70" s="90"/>
-      <c r="Y70" s="90"/>
-      <c r="Z70" s="90"/>
-      <c r="AA70" s="91"/>
-      <c r="AB70" s="89" t="s">
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC70" s="90"/>
-      <c r="AD70" s="90"/>
-      <c r="AE70" s="90"/>
-      <c r="AF70" s="90"/>
-      <c r="AG70" s="90"/>
-      <c r="AH70" s="90"/>
-      <c r="AI70" s="91"/>
-      <c r="AJ70" s="89" t="s">
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK70" s="90"/>
-      <c r="AL70" s="90"/>
-      <c r="AM70" s="90"/>
-      <c r="AN70" s="90"/>
-      <c r="AO70" s="90"/>
-      <c r="AP70" s="90"/>
-      <c r="AQ70" s="91"/>
-      <c r="AR70" s="89" t="s">
+      <c r="AL70" s="49"/>
+      <c r="AM70" s="49"/>
+      <c r="AN70" s="49"/>
+      <c r="AO70" s="49"/>
+      <c r="AP70" s="49"/>
+      <c r="AQ70" s="49"/>
+      <c r="AR70" s="50"/>
+      <c r="AS70" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS70" s="90"/>
-      <c r="AT70" s="90"/>
-      <c r="AU70" s="90"/>
-      <c r="AV70" s="90"/>
-      <c r="AW70" s="90"/>
-      <c r="AX70" s="90"/>
-      <c r="AY70" s="91"/>
-      <c r="AZ70" s="89" t="s">
+      <c r="AT70" s="49"/>
+      <c r="AU70" s="49"/>
+      <c r="AV70" s="49"/>
+      <c r="AW70" s="49"/>
+      <c r="AX70" s="49"/>
+      <c r="AY70" s="49"/>
+      <c r="AZ70" s="50"/>
+      <c r="BA70" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA70" s="90"/>
-      <c r="BB70" s="90"/>
-      <c r="BC70" s="90"/>
-      <c r="BD70" s="90"/>
-      <c r="BE70" s="90"/>
-      <c r="BF70" s="90"/>
-      <c r="BG70" s="91"/>
-      <c r="BH70" s="89" t="s">
+      <c r="BB70" s="49"/>
+      <c r="BC70" s="49"/>
+      <c r="BD70" s="49"/>
+      <c r="BE70" s="49"/>
+      <c r="BF70" s="49"/>
+      <c r="BG70" s="49"/>
+      <c r="BH70" s="50"/>
+      <c r="BI70" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI70" s="90"/>
-      <c r="BJ70" s="90"/>
-      <c r="BK70" s="90"/>
-      <c r="BL70" s="90"/>
-      <c r="BM70" s="90"/>
-      <c r="BN70" s="90"/>
-      <c r="BO70" s="91"/>
-      <c r="BP70" s="89" t="s">
+      <c r="BJ70" s="49"/>
+      <c r="BK70" s="49"/>
+      <c r="BL70" s="49"/>
+      <c r="BM70" s="49"/>
+      <c r="BN70" s="49"/>
+      <c r="BO70" s="49"/>
+      <c r="BP70" s="50"/>
+      <c r="BQ70" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ70" s="90"/>
-      <c r="BR70" s="90"/>
-      <c r="BS70" s="90"/>
-      <c r="BT70" s="90"/>
-      <c r="BU70" s="90"/>
-      <c r="BV70" s="90"/>
-      <c r="BW70" s="91"/>
+      <c r="BR70" s="49"/>
+      <c r="BS70" s="49"/>
+      <c r="BT70" s="49"/>
+      <c r="BU70" s="49"/>
+      <c r="BV70" s="49"/>
+      <c r="BW70" s="49"/>
+      <c r="BX70" s="50"/>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B71" s="24" t="s">
@@ -8489,100 +8736,104 @@
         <f t="shared" si="0"/>
         <v>464</v>
       </c>
-      <c r="H71" s="14">
-        <v>0</v>
+      <c r="H71" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1D0</v>
       </c>
       <c r="I71" s="14">
         <v>0</v>
       </c>
       <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="14">
         <v>8</v>
       </c>
-      <c r="K71" s="14"/>
-      <c r="L71" s="89" t="s">
+      <c r="L71" s="14"/>
+      <c r="M71" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M71" s="90"/>
-      <c r="N71" s="90"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="90"/>
-      <c r="S71" s="91"/>
-      <c r="T71" s="89" t="s">
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U71" s="90"/>
-      <c r="V71" s="90"/>
-      <c r="W71" s="90"/>
-      <c r="X71" s="90"/>
-      <c r="Y71" s="90"/>
-      <c r="Z71" s="90"/>
-      <c r="AA71" s="91"/>
-      <c r="AB71" s="89" t="s">
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC71" s="90"/>
-      <c r="AD71" s="90"/>
-      <c r="AE71" s="90"/>
-      <c r="AF71" s="90"/>
-      <c r="AG71" s="90"/>
-      <c r="AH71" s="90"/>
-      <c r="AI71" s="91"/>
-      <c r="AJ71" s="89" t="s">
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="49"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="50"/>
+      <c r="AK71" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK71" s="90"/>
-      <c r="AL71" s="90"/>
-      <c r="AM71" s="90"/>
-      <c r="AN71" s="90"/>
-      <c r="AO71" s="90"/>
-      <c r="AP71" s="90"/>
-      <c r="AQ71" s="91"/>
-      <c r="AR71" s="89" t="s">
+      <c r="AL71" s="49"/>
+      <c r="AM71" s="49"/>
+      <c r="AN71" s="49"/>
+      <c r="AO71" s="49"/>
+      <c r="AP71" s="49"/>
+      <c r="AQ71" s="49"/>
+      <c r="AR71" s="50"/>
+      <c r="AS71" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS71" s="90"/>
-      <c r="AT71" s="90"/>
-      <c r="AU71" s="90"/>
-      <c r="AV71" s="90"/>
-      <c r="AW71" s="90"/>
-      <c r="AX71" s="90"/>
-      <c r="AY71" s="91"/>
-      <c r="AZ71" s="89" t="s">
+      <c r="AT71" s="49"/>
+      <c r="AU71" s="49"/>
+      <c r="AV71" s="49"/>
+      <c r="AW71" s="49"/>
+      <c r="AX71" s="49"/>
+      <c r="AY71" s="49"/>
+      <c r="AZ71" s="50"/>
+      <c r="BA71" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA71" s="90"/>
-      <c r="BB71" s="90"/>
-      <c r="BC71" s="90"/>
-      <c r="BD71" s="90"/>
-      <c r="BE71" s="90"/>
-      <c r="BF71" s="90"/>
-      <c r="BG71" s="91"/>
-      <c r="BH71" s="89" t="s">
+      <c r="BB71" s="49"/>
+      <c r="BC71" s="49"/>
+      <c r="BD71" s="49"/>
+      <c r="BE71" s="49"/>
+      <c r="BF71" s="49"/>
+      <c r="BG71" s="49"/>
+      <c r="BH71" s="50"/>
+      <c r="BI71" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI71" s="90"/>
-      <c r="BJ71" s="90"/>
-      <c r="BK71" s="90"/>
-      <c r="BL71" s="90"/>
-      <c r="BM71" s="90"/>
-      <c r="BN71" s="90"/>
-      <c r="BO71" s="91"/>
-      <c r="BP71" s="89" t="s">
+      <c r="BJ71" s="49"/>
+      <c r="BK71" s="49"/>
+      <c r="BL71" s="49"/>
+      <c r="BM71" s="49"/>
+      <c r="BN71" s="49"/>
+      <c r="BO71" s="49"/>
+      <c r="BP71" s="50"/>
+      <c r="BQ71" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ71" s="90"/>
-      <c r="BR71" s="90"/>
-      <c r="BS71" s="90"/>
-      <c r="BT71" s="90"/>
-      <c r="BU71" s="90"/>
-      <c r="BV71" s="90"/>
-      <c r="BW71" s="91"/>
+      <c r="BR71" s="49"/>
+      <c r="BS71" s="49"/>
+      <c r="BT71" s="49"/>
+      <c r="BU71" s="49"/>
+      <c r="BV71" s="49"/>
+      <c r="BW71" s="49"/>
+      <c r="BX71" s="50"/>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -8604,100 +8855,104 @@
         <f t="shared" si="0"/>
         <v>472</v>
       </c>
-      <c r="H72" s="14">
-        <v>0</v>
+      <c r="H72" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1D8</v>
       </c>
       <c r="I72" s="14">
         <v>0</v>
       </c>
       <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14">
         <v>8</v>
       </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="89" t="s">
+      <c r="L72" s="14"/>
+      <c r="M72" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M72" s="90"/>
-      <c r="N72" s="90"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="90"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="89" t="s">
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U72" s="90"/>
-      <c r="V72" s="90"/>
-      <c r="W72" s="90"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="90"/>
-      <c r="Z72" s="90"/>
-      <c r="AA72" s="91"/>
-      <c r="AB72" s="89" t="s">
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC72" s="90"/>
-      <c r="AD72" s="90"/>
-      <c r="AE72" s="90"/>
-      <c r="AF72" s="90"/>
-      <c r="AG72" s="90"/>
-      <c r="AH72" s="90"/>
-      <c r="AI72" s="91"/>
-      <c r="AJ72" s="89" t="s">
+      <c r="AD72" s="49"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="50"/>
+      <c r="AK72" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK72" s="90"/>
-      <c r="AL72" s="90"/>
-      <c r="AM72" s="90"/>
-      <c r="AN72" s="90"/>
-      <c r="AO72" s="90"/>
-      <c r="AP72" s="90"/>
-      <c r="AQ72" s="91"/>
-      <c r="AR72" s="89" t="s">
+      <c r="AL72" s="49"/>
+      <c r="AM72" s="49"/>
+      <c r="AN72" s="49"/>
+      <c r="AO72" s="49"/>
+      <c r="AP72" s="49"/>
+      <c r="AQ72" s="49"/>
+      <c r="AR72" s="50"/>
+      <c r="AS72" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS72" s="90"/>
-      <c r="AT72" s="90"/>
-      <c r="AU72" s="90"/>
-      <c r="AV72" s="90"/>
-      <c r="AW72" s="90"/>
-      <c r="AX72" s="90"/>
-      <c r="AY72" s="91"/>
-      <c r="AZ72" s="89" t="s">
+      <c r="AT72" s="49"/>
+      <c r="AU72" s="49"/>
+      <c r="AV72" s="49"/>
+      <c r="AW72" s="49"/>
+      <c r="AX72" s="49"/>
+      <c r="AY72" s="49"/>
+      <c r="AZ72" s="50"/>
+      <c r="BA72" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA72" s="90"/>
-      <c r="BB72" s="90"/>
-      <c r="BC72" s="90"/>
-      <c r="BD72" s="90"/>
-      <c r="BE72" s="90"/>
-      <c r="BF72" s="90"/>
-      <c r="BG72" s="91"/>
-      <c r="BH72" s="89" t="s">
+      <c r="BB72" s="49"/>
+      <c r="BC72" s="49"/>
+      <c r="BD72" s="49"/>
+      <c r="BE72" s="49"/>
+      <c r="BF72" s="49"/>
+      <c r="BG72" s="49"/>
+      <c r="BH72" s="50"/>
+      <c r="BI72" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI72" s="90"/>
-      <c r="BJ72" s="90"/>
-      <c r="BK72" s="90"/>
-      <c r="BL72" s="90"/>
-      <c r="BM72" s="90"/>
-      <c r="BN72" s="90"/>
-      <c r="BO72" s="91"/>
-      <c r="BP72" s="89" t="s">
+      <c r="BJ72" s="49"/>
+      <c r="BK72" s="49"/>
+      <c r="BL72" s="49"/>
+      <c r="BM72" s="49"/>
+      <c r="BN72" s="49"/>
+      <c r="BO72" s="49"/>
+      <c r="BP72" s="50"/>
+      <c r="BQ72" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ72" s="90"/>
-      <c r="BR72" s="90"/>
-      <c r="BS72" s="90"/>
-      <c r="BT72" s="90"/>
-      <c r="BU72" s="90"/>
-      <c r="BV72" s="90"/>
-      <c r="BW72" s="91"/>
+      <c r="BR72" s="49"/>
+      <c r="BS72" s="49"/>
+      <c r="BT72" s="49"/>
+      <c r="BU72" s="49"/>
+      <c r="BV72" s="49"/>
+      <c r="BW72" s="49"/>
+      <c r="BX72" s="50"/>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B73" s="24" t="s">
@@ -8719,100 +8974,104 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="H73" s="14">
-        <v>0</v>
+      <c r="H73" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1E0</v>
       </c>
       <c r="I73" s="14">
         <v>0</v>
       </c>
       <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14">
         <v>8</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="89" t="s">
+      <c r="L73" s="14"/>
+      <c r="M73" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="89" t="s">
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="90"/>
-      <c r="X73" s="90"/>
-      <c r="Y73" s="90"/>
-      <c r="Z73" s="90"/>
-      <c r="AA73" s="91"/>
-      <c r="AB73" s="89" t="s">
+      <c r="V73" s="49"/>
+      <c r="W73" s="49"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="49"/>
+      <c r="Z73" s="49"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC73" s="90"/>
-      <c r="AD73" s="90"/>
-      <c r="AE73" s="90"/>
-      <c r="AF73" s="90"/>
-      <c r="AG73" s="90"/>
-      <c r="AH73" s="90"/>
-      <c r="AI73" s="91"/>
-      <c r="AJ73" s="89" t="s">
+      <c r="AD73" s="49"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49"/>
+      <c r="AG73" s="49"/>
+      <c r="AH73" s="49"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="50"/>
+      <c r="AK73" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK73" s="90"/>
-      <c r="AL73" s="90"/>
-      <c r="AM73" s="90"/>
-      <c r="AN73" s="90"/>
-      <c r="AO73" s="90"/>
-      <c r="AP73" s="90"/>
-      <c r="AQ73" s="91"/>
-      <c r="AR73" s="89" t="s">
+      <c r="AL73" s="49"/>
+      <c r="AM73" s="49"/>
+      <c r="AN73" s="49"/>
+      <c r="AO73" s="49"/>
+      <c r="AP73" s="49"/>
+      <c r="AQ73" s="49"/>
+      <c r="AR73" s="50"/>
+      <c r="AS73" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS73" s="90"/>
-      <c r="AT73" s="90"/>
-      <c r="AU73" s="90"/>
-      <c r="AV73" s="90"/>
-      <c r="AW73" s="90"/>
-      <c r="AX73" s="90"/>
-      <c r="AY73" s="91"/>
-      <c r="AZ73" s="89" t="s">
+      <c r="AT73" s="49"/>
+      <c r="AU73" s="49"/>
+      <c r="AV73" s="49"/>
+      <c r="AW73" s="49"/>
+      <c r="AX73" s="49"/>
+      <c r="AY73" s="49"/>
+      <c r="AZ73" s="50"/>
+      <c r="BA73" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA73" s="90"/>
-      <c r="BB73" s="90"/>
-      <c r="BC73" s="90"/>
-      <c r="BD73" s="90"/>
-      <c r="BE73" s="90"/>
-      <c r="BF73" s="90"/>
-      <c r="BG73" s="91"/>
-      <c r="BH73" s="89" t="s">
+      <c r="BB73" s="49"/>
+      <c r="BC73" s="49"/>
+      <c r="BD73" s="49"/>
+      <c r="BE73" s="49"/>
+      <c r="BF73" s="49"/>
+      <c r="BG73" s="49"/>
+      <c r="BH73" s="50"/>
+      <c r="BI73" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI73" s="90"/>
-      <c r="BJ73" s="90"/>
-      <c r="BK73" s="90"/>
-      <c r="BL73" s="90"/>
-      <c r="BM73" s="90"/>
-      <c r="BN73" s="90"/>
-      <c r="BO73" s="91"/>
-      <c r="BP73" s="89" t="s">
+      <c r="BJ73" s="49"/>
+      <c r="BK73" s="49"/>
+      <c r="BL73" s="49"/>
+      <c r="BM73" s="49"/>
+      <c r="BN73" s="49"/>
+      <c r="BO73" s="49"/>
+      <c r="BP73" s="50"/>
+      <c r="BQ73" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ73" s="90"/>
-      <c r="BR73" s="90"/>
-      <c r="BS73" s="90"/>
-      <c r="BT73" s="90"/>
-      <c r="BU73" s="90"/>
-      <c r="BV73" s="90"/>
-      <c r="BW73" s="91"/>
+      <c r="BR73" s="49"/>
+      <c r="BS73" s="49"/>
+      <c r="BT73" s="49"/>
+      <c r="BU73" s="49"/>
+      <c r="BV73" s="49"/>
+      <c r="BW73" s="49"/>
+      <c r="BX73" s="50"/>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B74" s="24" t="s">
@@ -8834,100 +9093,104 @@
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="H74" s="14">
-        <v>0</v>
+      <c r="H74" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1E8</v>
       </c>
       <c r="I74" s="14">
         <v>0</v>
       </c>
       <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="K74" s="14">
         <v>8</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="89" t="s">
+      <c r="L74" s="14"/>
+      <c r="M74" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M74" s="90"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="90"/>
-      <c r="R74" s="90"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="89" t="s">
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U74" s="90"/>
-      <c r="V74" s="90"/>
-      <c r="W74" s="90"/>
-      <c r="X74" s="90"/>
-      <c r="Y74" s="90"/>
-      <c r="Z74" s="90"/>
-      <c r="AA74" s="91"/>
-      <c r="AB74" s="89" t="s">
+      <c r="V74" s="49"/>
+      <c r="W74" s="49"/>
+      <c r="X74" s="49"/>
+      <c r="Y74" s="49"/>
+      <c r="Z74" s="49"/>
+      <c r="AA74" s="49"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC74" s="90"/>
-      <c r="AD74" s="90"/>
-      <c r="AE74" s="90"/>
-      <c r="AF74" s="90"/>
-      <c r="AG74" s="90"/>
-      <c r="AH74" s="90"/>
-      <c r="AI74" s="91"/>
-      <c r="AJ74" s="89" t="s">
+      <c r="AD74" s="49"/>
+      <c r="AE74" s="49"/>
+      <c r="AF74" s="49"/>
+      <c r="AG74" s="49"/>
+      <c r="AH74" s="49"/>
+      <c r="AI74" s="49"/>
+      <c r="AJ74" s="50"/>
+      <c r="AK74" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK74" s="90"/>
-      <c r="AL74" s="90"/>
-      <c r="AM74" s="90"/>
-      <c r="AN74" s="90"/>
-      <c r="AO74" s="90"/>
-      <c r="AP74" s="90"/>
-      <c r="AQ74" s="91"/>
-      <c r="AR74" s="89" t="s">
+      <c r="AL74" s="49"/>
+      <c r="AM74" s="49"/>
+      <c r="AN74" s="49"/>
+      <c r="AO74" s="49"/>
+      <c r="AP74" s="49"/>
+      <c r="AQ74" s="49"/>
+      <c r="AR74" s="50"/>
+      <c r="AS74" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS74" s="90"/>
-      <c r="AT74" s="90"/>
-      <c r="AU74" s="90"/>
-      <c r="AV74" s="90"/>
-      <c r="AW74" s="90"/>
-      <c r="AX74" s="90"/>
-      <c r="AY74" s="91"/>
-      <c r="AZ74" s="89" t="s">
+      <c r="AT74" s="49"/>
+      <c r="AU74" s="49"/>
+      <c r="AV74" s="49"/>
+      <c r="AW74" s="49"/>
+      <c r="AX74" s="49"/>
+      <c r="AY74" s="49"/>
+      <c r="AZ74" s="50"/>
+      <c r="BA74" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA74" s="90"/>
-      <c r="BB74" s="90"/>
-      <c r="BC74" s="90"/>
-      <c r="BD74" s="90"/>
-      <c r="BE74" s="90"/>
-      <c r="BF74" s="90"/>
-      <c r="BG74" s="91"/>
-      <c r="BH74" s="89" t="s">
+      <c r="BB74" s="49"/>
+      <c r="BC74" s="49"/>
+      <c r="BD74" s="49"/>
+      <c r="BE74" s="49"/>
+      <c r="BF74" s="49"/>
+      <c r="BG74" s="49"/>
+      <c r="BH74" s="50"/>
+      <c r="BI74" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI74" s="90"/>
-      <c r="BJ74" s="90"/>
-      <c r="BK74" s="90"/>
-      <c r="BL74" s="90"/>
-      <c r="BM74" s="90"/>
-      <c r="BN74" s="90"/>
-      <c r="BO74" s="91"/>
-      <c r="BP74" s="89" t="s">
+      <c r="BJ74" s="49"/>
+      <c r="BK74" s="49"/>
+      <c r="BL74" s="49"/>
+      <c r="BM74" s="49"/>
+      <c r="BN74" s="49"/>
+      <c r="BO74" s="49"/>
+      <c r="BP74" s="50"/>
+      <c r="BQ74" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ74" s="90"/>
-      <c r="BR74" s="90"/>
-      <c r="BS74" s="90"/>
-      <c r="BT74" s="90"/>
-      <c r="BU74" s="90"/>
-      <c r="BV74" s="90"/>
-      <c r="BW74" s="91"/>
+      <c r="BR74" s="49"/>
+      <c r="BS74" s="49"/>
+      <c r="BT74" s="49"/>
+      <c r="BU74" s="49"/>
+      <c r="BV74" s="49"/>
+      <c r="BW74" s="49"/>
+      <c r="BX74" s="50"/>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B75" s="24" t="s">
@@ -8949,100 +9212,104 @@
         <f t="shared" si="0"/>
         <v>496</v>
       </c>
-      <c r="H75" s="14">
-        <v>0</v>
+      <c r="H75" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1F0</v>
       </c>
       <c r="I75" s="14">
         <v>0</v>
       </c>
       <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14">
         <v>8</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="89" t="s">
+      <c r="L75" s="14"/>
+      <c r="M75" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="90"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="89" t="s">
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="U75" s="90"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
-      <c r="Z75" s="90"/>
-      <c r="AA75" s="91"/>
-      <c r="AB75" s="89" t="s">
+      <c r="V75" s="49"/>
+      <c r="W75" s="49"/>
+      <c r="X75" s="49"/>
+      <c r="Y75" s="49"/>
+      <c r="Z75" s="49"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AC75" s="90"/>
-      <c r="AD75" s="90"/>
-      <c r="AE75" s="90"/>
-      <c r="AF75" s="90"/>
-      <c r="AG75" s="90"/>
-      <c r="AH75" s="90"/>
-      <c r="AI75" s="91"/>
-      <c r="AJ75" s="89" t="s">
+      <c r="AD75" s="49"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="49"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AK75" s="90"/>
-      <c r="AL75" s="90"/>
-      <c r="AM75" s="90"/>
-      <c r="AN75" s="90"/>
-      <c r="AO75" s="90"/>
-      <c r="AP75" s="90"/>
-      <c r="AQ75" s="91"/>
-      <c r="AR75" s="89" t="s">
+      <c r="AL75" s="49"/>
+      <c r="AM75" s="49"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="49"/>
+      <c r="AP75" s="49"/>
+      <c r="AQ75" s="49"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AS75" s="90"/>
-      <c r="AT75" s="90"/>
-      <c r="AU75" s="90"/>
-      <c r="AV75" s="90"/>
-      <c r="AW75" s="90"/>
-      <c r="AX75" s="90"/>
-      <c r="AY75" s="91"/>
-      <c r="AZ75" s="89" t="s">
+      <c r="AT75" s="49"/>
+      <c r="AU75" s="49"/>
+      <c r="AV75" s="49"/>
+      <c r="AW75" s="49"/>
+      <c r="AX75" s="49"/>
+      <c r="AY75" s="49"/>
+      <c r="AZ75" s="50"/>
+      <c r="BA75" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="BA75" s="90"/>
-      <c r="BB75" s="90"/>
-      <c r="BC75" s="90"/>
-      <c r="BD75" s="90"/>
-      <c r="BE75" s="90"/>
-      <c r="BF75" s="90"/>
-      <c r="BG75" s="91"/>
-      <c r="BH75" s="89" t="s">
+      <c r="BB75" s="49"/>
+      <c r="BC75" s="49"/>
+      <c r="BD75" s="49"/>
+      <c r="BE75" s="49"/>
+      <c r="BF75" s="49"/>
+      <c r="BG75" s="49"/>
+      <c r="BH75" s="50"/>
+      <c r="BI75" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="BI75" s="90"/>
-      <c r="BJ75" s="90"/>
-      <c r="BK75" s="90"/>
-      <c r="BL75" s="90"/>
-      <c r="BM75" s="90"/>
-      <c r="BN75" s="90"/>
-      <c r="BO75" s="91"/>
-      <c r="BP75" s="89" t="s">
+      <c r="BJ75" s="49"/>
+      <c r="BK75" s="49"/>
+      <c r="BL75" s="49"/>
+      <c r="BM75" s="49"/>
+      <c r="BN75" s="49"/>
+      <c r="BO75" s="49"/>
+      <c r="BP75" s="50"/>
+      <c r="BQ75" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BQ75" s="90"/>
-      <c r="BR75" s="90"/>
-      <c r="BS75" s="90"/>
-      <c r="BT75" s="90"/>
-      <c r="BU75" s="90"/>
-      <c r="BV75" s="90"/>
-      <c r="BW75" s="91"/>
+      <c r="BR75" s="49"/>
+      <c r="BS75" s="49"/>
+      <c r="BT75" s="49"/>
+      <c r="BU75" s="49"/>
+      <c r="BV75" s="49"/>
+      <c r="BW75" s="49"/>
+      <c r="BX75" s="50"/>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B76" s="24" t="s">
@@ -9064,17 +9331,20 @@
         <f t="shared" si="0"/>
         <v>507</v>
       </c>
-      <c r="H76" s="28">
+      <c r="H76" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1FB</v>
+      </c>
+      <c r="I76" s="28">
         <v>1</v>
       </c>
-      <c r="I76" s="14">
-        <v>0</v>
-      </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="21"/>
+      <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14"/>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
       <c r="O76" s="21"/>
@@ -9138,10 +9408,11 @@
       <c r="BU76" s="21"/>
       <c r="BV76" s="21"/>
       <c r="BW76" s="21"/>
+      <c r="BX76" s="21"/>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B77" s="24" t="s">
@@ -9163,17 +9434,20 @@
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="I77" s="28">
         <v>1</v>
       </c>
-      <c r="I77" s="14">
-        <v>0</v>
-      </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="21"/>
+      <c r="K77" s="14">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14"/>
       <c r="M77" s="21"/>
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
@@ -9237,10 +9511,11 @@
       <c r="BU77" s="21"/>
       <c r="BV77" s="21"/>
       <c r="BW77" s="21"/>
+      <c r="BX77" s="21"/>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -9259,20 +9534,23 @@
         <v>0</v>
       </c>
       <c r="G78" s="14">
-        <f t="shared" ref="G78:G90" si="2">A78*(2^3)+D78</f>
+        <f t="shared" ref="G78:G90" si="3">A78*(2^3)+D78</f>
         <v>524</v>
       </c>
-      <c r="H78" s="28">
+      <c r="H78" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>20C</v>
+      </c>
+      <c r="I78" s="28">
         <v>1</v>
       </c>
-      <c r="I78" s="14">
-        <v>0</v>
-      </c>
       <c r="J78" s="14">
         <v>0</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="21"/>
+      <c r="K78" s="14">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
@@ -9336,10 +9614,11 @@
       <c r="BU78" s="21"/>
       <c r="BV78" s="21"/>
       <c r="BW78" s="21"/>
+      <c r="BX78" s="21"/>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -9358,20 +9637,23 @@
         <v>0</v>
       </c>
       <c r="G79" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>532</v>
       </c>
-      <c r="H79" s="28">
+      <c r="H79" s="102" t="str">
+        <f t="shared" ref="H79:H90" si="4">DEC2HEX(G79)</f>
+        <v>214</v>
+      </c>
+      <c r="I79" s="28">
         <v>1</v>
       </c>
-      <c r="I79" s="14">
-        <v>0</v>
-      </c>
       <c r="J79" s="14">
         <v>0</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="21"/>
+      <c r="K79" s="14">
+        <v>0</v>
+      </c>
+      <c r="L79" s="14"/>
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
@@ -9435,10 +9717,11 @@
       <c r="BU79" s="21"/>
       <c r="BV79" s="21"/>
       <c r="BW79" s="21"/>
+      <c r="BX79" s="21"/>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -9457,20 +9740,23 @@
         <v>0</v>
       </c>
       <c r="G80" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>538</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H80" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>21A</v>
+      </c>
+      <c r="I80" s="28">
         <v>1</v>
       </c>
-      <c r="I80" s="14">
-        <v>0</v>
-      </c>
       <c r="J80" s="14">
         <v>0</v>
       </c>
-      <c r="K80" s="14"/>
-      <c r="L80" s="21"/>
+      <c r="K80" s="14">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14"/>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
       <c r="O80" s="21"/>
@@ -9534,10 +9820,11 @@
       <c r="BU80" s="21"/>
       <c r="BV80" s="21"/>
       <c r="BW80" s="21"/>
+      <c r="BX80" s="21"/>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -9556,20 +9843,23 @@
         <v>0</v>
       </c>
       <c r="G81" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>546</v>
       </c>
-      <c r="H81" s="28">
+      <c r="H81" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="I81" s="28">
         <v>1</v>
       </c>
-      <c r="I81" s="14">
-        <v>0</v>
-      </c>
       <c r="J81" s="14">
         <v>0</v>
       </c>
-      <c r="K81" s="14"/>
-      <c r="L81" s="21"/>
+      <c r="K81" s="14">
+        <v>0</v>
+      </c>
+      <c r="L81" s="14"/>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
       <c r="O81" s="21"/>
@@ -9633,10 +9923,11 @@
       <c r="BU81" s="21"/>
       <c r="BV81" s="21"/>
       <c r="BW81" s="21"/>
+      <c r="BX81" s="21"/>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -9655,20 +9946,23 @@
         <v>0</v>
       </c>
       <c r="G82" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>554</v>
       </c>
-      <c r="H82" s="28">
+      <c r="H82" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>22A</v>
+      </c>
+      <c r="I82" s="28">
         <v>1</v>
       </c>
-      <c r="I82" s="14">
-        <v>0</v>
-      </c>
       <c r="J82" s="14">
         <v>0</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="21"/>
+      <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14"/>
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
       <c r="O82" s="21"/>
@@ -9732,10 +10026,11 @@
       <c r="BU82" s="21"/>
       <c r="BV82" s="21"/>
       <c r="BW82" s="21"/>
+      <c r="BX82" s="21"/>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -9754,20 +10049,23 @@
         <v>0</v>
       </c>
       <c r="G83" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>562</v>
       </c>
-      <c r="H83" s="28">
+      <c r="H83" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="I83" s="28">
         <v>1</v>
       </c>
-      <c r="I83" s="14">
-        <v>0</v>
-      </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
-      <c r="K83" s="14"/>
-      <c r="L83" s="21"/>
+      <c r="K83" s="14">
+        <v>0</v>
+      </c>
+      <c r="L83" s="14"/>
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
       <c r="O83" s="21"/>
@@ -9831,10 +10129,11 @@
       <c r="BU83" s="21"/>
       <c r="BV83" s="21"/>
       <c r="BW83" s="21"/>
+      <c r="BX83" s="21"/>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <f t="shared" ref="A84:A90" si="3">A83+1</f>
+        <f t="shared" ref="A84:A90" si="5">A83+1</f>
         <v>71</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -9853,20 +10152,23 @@
         <v>0</v>
       </c>
       <c r="G84" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>570</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>23A</v>
+      </c>
+      <c r="I84" s="28">
         <v>1</v>
       </c>
-      <c r="I84" s="14">
-        <v>0</v>
-      </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
-      <c r="K84" s="14"/>
-      <c r="L84" s="21"/>
+      <c r="K84" s="14">
+        <v>0</v>
+      </c>
+      <c r="L84" s="14"/>
       <c r="M84" s="21"/>
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
@@ -9930,10 +10232,11 @@
       <c r="BU84" s="21"/>
       <c r="BV84" s="21"/>
       <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -9952,20 +10255,23 @@
         <v>0</v>
       </c>
       <c r="G85" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>578</v>
       </c>
-      <c r="H85" s="28">
+      <c r="H85" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="I85" s="28">
         <v>1</v>
       </c>
-      <c r="I85" s="14">
-        <v>0</v>
-      </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="21"/>
+      <c r="K85" s="14">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14"/>
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
       <c r="O85" s="21"/>
@@ -10029,10 +10335,11 @@
       <c r="BU85" s="21"/>
       <c r="BV85" s="21"/>
       <c r="BW85" s="21"/>
+      <c r="BX85" s="21"/>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -10051,20 +10358,23 @@
         <v>0</v>
       </c>
       <c r="G86" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>586</v>
       </c>
-      <c r="H86" s="28">
+      <c r="H86" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>24A</v>
+      </c>
+      <c r="I86" s="28">
         <v>1</v>
       </c>
-      <c r="I86" s="14">
-        <v>0</v>
-      </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="21"/>
+      <c r="K86" s="14">
+        <v>0</v>
+      </c>
+      <c r="L86" s="14"/>
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
       <c r="O86" s="21"/>
@@ -10128,10 +10438,11 @@
       <c r="BU86" s="21"/>
       <c r="BV86" s="21"/>
       <c r="BW86" s="21"/>
+      <c r="BX86" s="21"/>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -10150,20 +10461,23 @@
         <v>0</v>
       </c>
       <c r="G87" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>594</v>
       </c>
-      <c r="H87" s="28">
+      <c r="H87" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="I87" s="28">
         <v>1</v>
       </c>
-      <c r="I87" s="14">
-        <v>0</v>
-      </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="21"/>
+      <c r="K87" s="14">
+        <v>0</v>
+      </c>
+      <c r="L87" s="14"/>
       <c r="M87" s="21"/>
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
@@ -10227,10 +10541,11 @@
       <c r="BU87" s="21"/>
       <c r="BV87" s="21"/>
       <c r="BW87" s="21"/>
+      <c r="BX87" s="21"/>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -10249,20 +10564,23 @@
         <v>0</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>602</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>25A</v>
+      </c>
+      <c r="I88" s="28">
         <v>1</v>
       </c>
-      <c r="I88" s="14">
-        <v>0</v>
-      </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="21"/>
+      <c r="K88" s="14">
+        <v>0</v>
+      </c>
+      <c r="L88" s="14"/>
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
@@ -10326,10 +10644,11 @@
       <c r="BU88" s="21"/>
       <c r="BV88" s="21"/>
       <c r="BW88" s="21"/>
+      <c r="BX88" s="21"/>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -10348,20 +10667,23 @@
         <v>0</v>
       </c>
       <c r="G89" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
-      <c r="H89" s="28">
+      <c r="H89" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="I89" s="28">
         <v>1</v>
       </c>
-      <c r="I89" s="14">
-        <v>0</v>
-      </c>
       <c r="J89" s="14">
         <v>0</v>
       </c>
-      <c r="K89" s="14"/>
-      <c r="L89" s="21"/>
+      <c r="K89" s="14">
+        <v>0</v>
+      </c>
+      <c r="L89" s="14"/>
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
@@ -10425,10 +10747,11 @@
       <c r="BU89" s="21"/>
       <c r="BV89" s="21"/>
       <c r="BW89" s="21"/>
+      <c r="BX89" s="21"/>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -10447,20 +10770,23 @@
         <v>0</v>
       </c>
       <c r="G90" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
-      <c r="H90" s="28">
+      <c r="H90" s="102" t="str">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="I90" s="28">
         <v>1</v>
       </c>
-      <c r="I90" s="14">
-        <v>0</v>
-      </c>
       <c r="J90" s="14">
         <v>0</v>
       </c>
-      <c r="K90" s="14"/>
-      <c r="L90" s="21"/>
+      <c r="K90" s="14">
+        <v>0</v>
+      </c>
+      <c r="L90" s="14"/>
       <c r="M90" s="21"/>
       <c r="N90" s="21"/>
       <c r="O90" s="21"/>
@@ -10468,8 +10794,8 @@
       <c r="Q90" s="21"/>
       <c r="R90" s="21"/>
       <c r="S90" s="21"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="41"/>
       <c r="V90" s="21"/>
       <c r="W90" s="21"/>
       <c r="X90" s="21"/>
@@ -10524,172 +10850,173 @@
       <c r="BU90" s="21"/>
       <c r="BV90" s="21"/>
       <c r="BW90" s="21"/>
+      <c r="BX90" s="21"/>
     </row>
-    <row r="98" spans="37:37" x14ac:dyDescent="0.3">
-      <c r="AK98" s="20" t="s">
+    <row r="98" spans="38:38" x14ac:dyDescent="0.25">
+      <c r="AL98" s="20" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A13:J90"/>
+  <autoFilter ref="A13:K90"/>
   <mergeCells count="157">
-    <mergeCell ref="BF65:BG65"/>
-    <mergeCell ref="L64:S64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AI64"/>
-    <mergeCell ref="AP64:AQ64"/>
-    <mergeCell ref="AR64:AY64"/>
-    <mergeCell ref="BF64:BG64"/>
-    <mergeCell ref="L65:S65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AI65"/>
-    <mergeCell ref="AP65:AQ65"/>
-    <mergeCell ref="AR65:AY65"/>
-    <mergeCell ref="AZ74:BG74"/>
-    <mergeCell ref="BH74:BO74"/>
-    <mergeCell ref="BP74:BW74"/>
-    <mergeCell ref="L75:S75"/>
-    <mergeCell ref="T75:AA75"/>
-    <mergeCell ref="AB75:AI75"/>
-    <mergeCell ref="AJ75:AQ75"/>
-    <mergeCell ref="AR75:AY75"/>
-    <mergeCell ref="AZ75:BG75"/>
-    <mergeCell ref="BH75:BO75"/>
-    <mergeCell ref="BP75:BW75"/>
-    <mergeCell ref="L74:S74"/>
-    <mergeCell ref="T74:AA74"/>
-    <mergeCell ref="AB74:AI74"/>
-    <mergeCell ref="AJ74:AQ74"/>
-    <mergeCell ref="AR74:AY74"/>
-    <mergeCell ref="AZ72:BG72"/>
-    <mergeCell ref="BH72:BO72"/>
-    <mergeCell ref="BP72:BW72"/>
-    <mergeCell ref="L73:S73"/>
-    <mergeCell ref="T73:AA73"/>
-    <mergeCell ref="AB73:AI73"/>
-    <mergeCell ref="AJ73:AQ73"/>
-    <mergeCell ref="AR73:AY73"/>
-    <mergeCell ref="AZ73:BG73"/>
-    <mergeCell ref="BH73:BO73"/>
-    <mergeCell ref="BP73:BW73"/>
-    <mergeCell ref="L72:S72"/>
-    <mergeCell ref="T72:AA72"/>
-    <mergeCell ref="AB72:AI72"/>
-    <mergeCell ref="AJ72:AQ72"/>
-    <mergeCell ref="AR72:AY72"/>
-    <mergeCell ref="AZ70:BG70"/>
-    <mergeCell ref="BH70:BO70"/>
-    <mergeCell ref="BP70:BW70"/>
-    <mergeCell ref="L71:S71"/>
-    <mergeCell ref="T71:AA71"/>
-    <mergeCell ref="AB71:AI71"/>
-    <mergeCell ref="AJ71:AQ71"/>
-    <mergeCell ref="AR71:AY71"/>
-    <mergeCell ref="AZ71:BG71"/>
-    <mergeCell ref="BH71:BO71"/>
-    <mergeCell ref="BP71:BW71"/>
-    <mergeCell ref="L70:S70"/>
-    <mergeCell ref="T70:AA70"/>
-    <mergeCell ref="AB70:AI70"/>
-    <mergeCell ref="AJ70:AQ70"/>
-    <mergeCell ref="AR70:AY70"/>
-    <mergeCell ref="AZ68:BG68"/>
-    <mergeCell ref="BH68:BO68"/>
-    <mergeCell ref="BP68:BW68"/>
-    <mergeCell ref="L69:S69"/>
-    <mergeCell ref="T69:AA69"/>
-    <mergeCell ref="AB69:AI69"/>
-    <mergeCell ref="AJ69:AQ69"/>
-    <mergeCell ref="AR69:AY69"/>
-    <mergeCell ref="AZ69:BG69"/>
-    <mergeCell ref="BH69:BO69"/>
-    <mergeCell ref="BP69:BW69"/>
-    <mergeCell ref="L68:S68"/>
-    <mergeCell ref="T68:AA68"/>
-    <mergeCell ref="AB68:AI68"/>
-    <mergeCell ref="AJ68:AQ68"/>
-    <mergeCell ref="AR68:AY68"/>
-    <mergeCell ref="BH66:BO66"/>
-    <mergeCell ref="BP66:BW66"/>
-    <mergeCell ref="L67:S67"/>
-    <mergeCell ref="T67:AA67"/>
-    <mergeCell ref="AB67:AI67"/>
-    <mergeCell ref="AJ67:AQ67"/>
-    <mergeCell ref="AR67:AY67"/>
-    <mergeCell ref="AZ67:BG67"/>
-    <mergeCell ref="BH67:BO67"/>
-    <mergeCell ref="BP67:BW67"/>
-    <mergeCell ref="T66:AA66"/>
-    <mergeCell ref="AB66:AI66"/>
-    <mergeCell ref="AJ66:AQ66"/>
-    <mergeCell ref="AR66:AY66"/>
-    <mergeCell ref="AZ66:BG66"/>
-    <mergeCell ref="L66:S66"/>
-    <mergeCell ref="L26:S26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="L54:S54"/>
-    <mergeCell ref="T54:AA54"/>
-    <mergeCell ref="L55:S55"/>
-    <mergeCell ref="L56:S56"/>
-    <mergeCell ref="L57:S57"/>
-    <mergeCell ref="L58:S58"/>
-    <mergeCell ref="L59:S59"/>
-    <mergeCell ref="L60:S60"/>
-    <mergeCell ref="L61:S61"/>
-    <mergeCell ref="T55:AA55"/>
-    <mergeCell ref="T56:AA56"/>
-    <mergeCell ref="T57:AA57"/>
-    <mergeCell ref="T58:AA58"/>
-    <mergeCell ref="L63:S63"/>
-    <mergeCell ref="V63:AA63"/>
-    <mergeCell ref="AD63:AE63"/>
-    <mergeCell ref="AF63:AI63"/>
-    <mergeCell ref="AZ11:BG11"/>
-    <mergeCell ref="AJ62:AO62"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="T59:AA59"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="T61:AA61"/>
-    <mergeCell ref="BH11:BO11"/>
-    <mergeCell ref="BP11:BW11"/>
-    <mergeCell ref="F11:J12"/>
-    <mergeCell ref="AR62:AU62"/>
-    <mergeCell ref="BF62:BG62"/>
-    <mergeCell ref="AV62:AY62"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AR11:AY11"/>
-    <mergeCell ref="L62:S62"/>
-    <mergeCell ref="T62:AA62"/>
-    <mergeCell ref="AF62:AI62"/>
-    <mergeCell ref="AB62:AE62"/>
-    <mergeCell ref="AP62:AQ62"/>
-    <mergeCell ref="BH12:BO12"/>
-    <mergeCell ref="BP12:BW12"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="AR12:AY12"/>
-    <mergeCell ref="AZ12:BG12"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="U16:V16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="F11:K12"/>
+    <mergeCell ref="AS62:AV62"/>
+    <mergeCell ref="BG62:BH62"/>
+    <mergeCell ref="AW62:AZ62"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:AB11"/>
+    <mergeCell ref="AC11:AJ11"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AS11:AZ11"/>
+    <mergeCell ref="M62:T62"/>
+    <mergeCell ref="U62:AB62"/>
+    <mergeCell ref="AG62:AJ62"/>
+    <mergeCell ref="AC62:AF62"/>
+    <mergeCell ref="AQ62:AR62"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AK12:AR12"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC12:AJ12"/>
+    <mergeCell ref="U12:AB12"/>
+    <mergeCell ref="AS12:AZ12"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="AG63:AJ63"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="AK62:AP62"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U59:AB59"/>
+    <mergeCell ref="U60:AB60"/>
+    <mergeCell ref="U61:AB61"/>
+    <mergeCell ref="BI11:BP11"/>
+    <mergeCell ref="BQ11:BX11"/>
+    <mergeCell ref="BI12:BP12"/>
+    <mergeCell ref="BQ12:BX12"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="U55:AB55"/>
+    <mergeCell ref="U56:AB56"/>
+    <mergeCell ref="U57:AB57"/>
+    <mergeCell ref="U58:AB58"/>
+    <mergeCell ref="M63:T63"/>
+    <mergeCell ref="W63:AB63"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="U54:AB54"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="M58:T58"/>
+    <mergeCell ref="M59:T59"/>
+    <mergeCell ref="BI66:BP66"/>
+    <mergeCell ref="BQ66:BX66"/>
+    <mergeCell ref="M67:T67"/>
+    <mergeCell ref="U67:AB67"/>
+    <mergeCell ref="AC67:AJ67"/>
+    <mergeCell ref="AK67:AR67"/>
+    <mergeCell ref="AS67:AZ67"/>
+    <mergeCell ref="BA67:BH67"/>
+    <mergeCell ref="BI67:BP67"/>
+    <mergeCell ref="BQ67:BX67"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AC66:AJ66"/>
+    <mergeCell ref="AK66:AR66"/>
+    <mergeCell ref="AS66:AZ66"/>
+    <mergeCell ref="BA66:BH66"/>
+    <mergeCell ref="M66:T66"/>
+    <mergeCell ref="BA68:BH68"/>
+    <mergeCell ref="BI68:BP68"/>
+    <mergeCell ref="BQ68:BX68"/>
+    <mergeCell ref="M69:T69"/>
+    <mergeCell ref="U69:AB69"/>
+    <mergeCell ref="AC69:AJ69"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="AS69:AZ69"/>
+    <mergeCell ref="BA69:BH69"/>
+    <mergeCell ref="BI69:BP69"/>
+    <mergeCell ref="BQ69:BX69"/>
+    <mergeCell ref="M68:T68"/>
+    <mergeCell ref="U68:AB68"/>
+    <mergeCell ref="AC68:AJ68"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AS68:AZ68"/>
+    <mergeCell ref="BA70:BH70"/>
+    <mergeCell ref="BI70:BP70"/>
+    <mergeCell ref="BQ70:BX70"/>
+    <mergeCell ref="M71:T71"/>
+    <mergeCell ref="U71:AB71"/>
+    <mergeCell ref="AC71:AJ71"/>
+    <mergeCell ref="AK71:AR71"/>
+    <mergeCell ref="AS71:AZ71"/>
+    <mergeCell ref="BA71:BH71"/>
+    <mergeCell ref="BI71:BP71"/>
+    <mergeCell ref="BQ71:BX71"/>
+    <mergeCell ref="M70:T70"/>
+    <mergeCell ref="U70:AB70"/>
+    <mergeCell ref="AC70:AJ70"/>
+    <mergeCell ref="AK70:AR70"/>
+    <mergeCell ref="AS70:AZ70"/>
+    <mergeCell ref="BA72:BH72"/>
+    <mergeCell ref="BI72:BP72"/>
+    <mergeCell ref="BQ72:BX72"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="U73:AB73"/>
+    <mergeCell ref="AC73:AJ73"/>
+    <mergeCell ref="AK73:AR73"/>
+    <mergeCell ref="AS73:AZ73"/>
+    <mergeCell ref="BA73:BH73"/>
+    <mergeCell ref="BI73:BP73"/>
+    <mergeCell ref="BQ73:BX73"/>
+    <mergeCell ref="M72:T72"/>
+    <mergeCell ref="U72:AB72"/>
+    <mergeCell ref="AC72:AJ72"/>
+    <mergeCell ref="AK72:AR72"/>
+    <mergeCell ref="AS72:AZ72"/>
+    <mergeCell ref="BA74:BH74"/>
+    <mergeCell ref="BI74:BP74"/>
+    <mergeCell ref="BQ74:BX74"/>
+    <mergeCell ref="M75:T75"/>
+    <mergeCell ref="U75:AB75"/>
+    <mergeCell ref="AC75:AJ75"/>
+    <mergeCell ref="AK75:AR75"/>
+    <mergeCell ref="AS75:AZ75"/>
+    <mergeCell ref="BA75:BH75"/>
+    <mergeCell ref="BI75:BP75"/>
+    <mergeCell ref="BQ75:BX75"/>
+    <mergeCell ref="M74:T74"/>
+    <mergeCell ref="U74:AB74"/>
+    <mergeCell ref="AC74:AJ74"/>
+    <mergeCell ref="AK74:AR74"/>
+    <mergeCell ref="AS74:AZ74"/>
+    <mergeCell ref="BG65:BH65"/>
+    <mergeCell ref="M64:T64"/>
+    <mergeCell ref="AA64:AB64"/>
+    <mergeCell ref="AC64:AJ64"/>
+    <mergeCell ref="AQ64:AR64"/>
+    <mergeCell ref="AS64:AZ64"/>
+    <mergeCell ref="BG64:BH64"/>
+    <mergeCell ref="M65:T65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AJ65"/>
+    <mergeCell ref="AQ65:AR65"/>
+    <mergeCell ref="AS65:AZ65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10705,12 +11032,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>163</v>
       </c>
@@ -10724,7 +11051,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -10738,7 +11065,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>158</v>
       </c>
@@ -10746,7 +11073,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -10760,7 +11087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>179</v>
       </c>
